--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E362B6F-D56E-A14D-B743-782DD29D5365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C56A981-9746-3146-9451-4B418A017EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35540" yWindow="2540" windowWidth="28800" windowHeight="17500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
   <si>
     <t>year</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>thierry breton</t>
+  </si>
+  <si>
+    <t>julien denormandie</t>
+  </si>
+  <si>
+    <t>clément beaune</t>
+  </si>
+  <si>
+    <t>valérie hayer</t>
   </si>
 </sst>
 </file>
@@ -520,9 +529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7057F566-E0FC-7B48-AE13-1D4B793F99D4}">
   <dimension ref="A1:AG467"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="bottomLeft" activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1462,7 +1471,7 @@
         <v>800</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
         <v>1</v>
@@ -1536,7 +1545,7 @@
         <v>834</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
         <v>1</v>
@@ -1610,7 +1619,7 @@
         <v>1209</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
         <v>1</v>
@@ -1653,72 +1662,361 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="12:33" x14ac:dyDescent="0.2">
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="12:33" x14ac:dyDescent="0.2">
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="12:33" x14ac:dyDescent="0.2">
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>2024</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>900</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>7.5</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>8.5</v>
+      </c>
+      <c r="R16">
+        <v>10.5</v>
+      </c>
+      <c r="S16">
+        <v>19</v>
+      </c>
+      <c r="T16">
+        <v>7.5</v>
+      </c>
+      <c r="U16">
+        <v>1.5</v>
+      </c>
+      <c r="V16">
+        <v>28.5</v>
+      </c>
+      <c r="W16">
+        <v>6</v>
+      </c>
+      <c r="X16">
+        <v>7</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>2024</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>900</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N17">
+        <v>1.5</v>
+      </c>
+      <c r="O17">
+        <v>7</v>
+      </c>
+      <c r="P17">
+        <v>3.5</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+      <c r="R17">
+        <v>9.5</v>
+      </c>
+      <c r="S17">
+        <v>19</v>
+      </c>
+      <c r="T17">
+        <v>7</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>29</v>
+      </c>
+      <c r="W17">
+        <v>6.5</v>
+      </c>
+      <c r="X17">
+        <v>8</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>2024</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>900</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>8</v>
+      </c>
+      <c r="P18">
+        <v>3.5</v>
+      </c>
+      <c r="Q18">
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <v>10.5</v>
+      </c>
+      <c r="S18">
+        <v>18</v>
+      </c>
+      <c r="T18">
+        <v>7.5</v>
+      </c>
+      <c r="U18">
+        <v>1.5</v>
+      </c>
+      <c r="V18">
+        <v>28</v>
+      </c>
+      <c r="W18">
+        <v>6</v>
+      </c>
+      <c r="X18">
+        <v>8</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>2024</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19">
+        <v>800</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N19">
+        <v>1.5</v>
+      </c>
+      <c r="O19">
+        <v>9</v>
+      </c>
+      <c r="P19">
+        <v>2.5</v>
+      </c>
+      <c r="Q19">
+        <v>9.5</v>
+      </c>
+      <c r="R19">
+        <v>9</v>
+      </c>
+      <c r="S19">
+        <v>16.5</v>
+      </c>
+      <c r="T19">
+        <v>8</v>
+      </c>
+      <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>27.5</v>
+      </c>
+      <c r="W19">
+        <v>5</v>
+      </c>
+      <c r="X19">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="U20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C56A981-9746-3146-9451-4B418A017EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71414D50-55E4-284C-8C04-B276617B069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35540" yWindow="2540" windowWidth="28800" windowHeight="17500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
   <si>
     <t>year</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>valérie hayer</t>
+  </si>
+  <si>
+    <t>yougov</t>
   </si>
 </sst>
 </file>
@@ -529,9 +532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7057F566-E0FC-7B48-AE13-1D4B793F99D4}">
   <dimension ref="A1:AG467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="V22" sqref="V22"/>
+      <selection pane="bottomLeft" activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1690,10 +1693,10 @@
         <v>21</v>
       </c>
       <c r="J16">
-        <v>900</v>
+        <v>576</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>1</v>
@@ -1738,7 +1741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1767,10 +1770,10 @@
         <v>21</v>
       </c>
       <c r="J17">
-        <v>900</v>
+        <v>582</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
         <v>1</v>
@@ -1815,7 +1818,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>13</v>
       </c>
@@ -1844,10 +1847,10 @@
         <v>21</v>
       </c>
       <c r="J18">
-        <v>900</v>
+        <v>581</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
         <v>1</v>
@@ -1892,7 +1895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>14</v>
       </c>
@@ -1966,57 +1969,125 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="U20" s="1"/>
-      <c r="AG20" s="1"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>2024</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20">
+        <v>549</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>8</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+      <c r="R20">
+        <v>8</v>
+      </c>
+      <c r="S20">
+        <v>19</v>
+      </c>
+      <c r="T20">
+        <v>6</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>32</v>
+      </c>
+      <c r="W20">
+        <v>8</v>
+      </c>
+      <c r="X20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71414D50-55E4-284C-8C04-B276617B069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FEAB37-2973-C149-81B2-BB8DB485F53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35540" yWindow="2540" windowWidth="28800" windowHeight="17500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
+    <workbookView xWindow="1600" yWindow="3500" windowWidth="28800" windowHeight="17500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t>year</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>yougov</t>
+  </si>
+  <si>
+    <t>bva</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="Y20" sqref="Y20"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1095,10 +1098,10 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J8">
         <v>536</v>
@@ -1317,10 +1320,10 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J11">
         <v>546</v>
@@ -2044,20 +2047,300 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>2024</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21">
+        <v>568</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>7</v>
+      </c>
+      <c r="P21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>8</v>
+      </c>
+      <c r="R21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <v>8</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <v>27</v>
+      </c>
+      <c r="W21">
+        <v>8</v>
+      </c>
+      <c r="X21">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>2024</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22">
+        <v>546</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>8</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <v>10</v>
+      </c>
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>8</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>27</v>
+      </c>
+      <c r="W22">
+        <v>7</v>
+      </c>
+      <c r="X22">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>2024</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <v>451</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1.5</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+      <c r="P23">
+        <v>1.5</v>
+      </c>
+      <c r="Q23">
+        <v>8.5</v>
+      </c>
+      <c r="R23">
+        <v>11</v>
+      </c>
+      <c r="S23">
+        <v>19</v>
+      </c>
+      <c r="T23">
+        <v>8.5</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23">
+        <v>30</v>
+      </c>
+      <c r="W23">
+        <v>7</v>
+      </c>
+      <c r="X23">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>2024</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>618</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>7</v>
+      </c>
+      <c r="R24">
+        <v>11</v>
+      </c>
+      <c r="S24">
+        <v>18</v>
+      </c>
+      <c r="T24">
+        <v>8</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>30</v>
+      </c>
+      <c r="W24">
+        <v>6</v>
+      </c>
+      <c r="X24">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="L25" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FEAB37-2973-C149-81B2-BB8DB485F53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850F317F-E9D2-144B-8FCA-CF7C32CAF134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="3500" windowWidth="28800" windowHeight="17500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
   <si>
     <t>year</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>bva</t>
+  </si>
+  <si>
+    <t>hayer</t>
   </si>
 </sst>
 </file>
@@ -537,12 +540,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -618,8 +621,11 @@
       <c r="Y1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -692,8 +698,11 @@
       <c r="X2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -766,8 +775,11 @@
       <c r="X3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -843,8 +855,11 @@
       <c r="Y4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -920,8 +935,11 @@
       <c r="Y5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -997,8 +1015,11 @@
       <c r="Y6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1074,8 +1095,11 @@
       <c r="Y7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1148,8 +1172,11 @@
       <c r="X8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1222,8 +1249,11 @@
       <c r="X9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1296,8 +1326,11 @@
       <c r="X10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1370,8 +1403,11 @@
       <c r="X11">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1444,8 +1480,11 @@
       <c r="X12">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1518,8 +1557,11 @@
       <c r="X13">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1592,8 +1634,11 @@
       <c r="X14">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1666,8 +1711,11 @@
       <c r="X15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1702,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0.5</v>
@@ -1743,8 +1791,11 @@
       <c r="Y16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1779,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>0.5</v>
@@ -1820,8 +1871,11 @@
       <c r="Y17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>13</v>
       </c>
@@ -1897,8 +1951,11 @@
       <c r="Y18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>14</v>
       </c>
@@ -1971,8 +2028,11 @@
       <c r="X19">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>15</v>
       </c>
@@ -2045,8 +2105,11 @@
       <c r="X20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>16</v>
       </c>
@@ -2078,7 +2141,7 @@
         <v>568</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
         <v>1</v>
@@ -2119,8 +2182,11 @@
       <c r="X21">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>17</v>
       </c>
@@ -2152,7 +2218,7 @@
         <v>546</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
         <v>1</v>
@@ -2193,8 +2259,11 @@
       <c r="X22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>18</v>
       </c>
@@ -2232,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N23">
         <v>1.5</v>
@@ -2267,8 +2336,11 @@
       <c r="X23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>19</v>
       </c>
@@ -2341,36 +2413,112 @@
       <c r="X24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>2024</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25">
+        <v>580</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>8</v>
+      </c>
+      <c r="P25">
+        <v>3.5</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+      <c r="R25">
+        <v>9</v>
+      </c>
+      <c r="S25">
+        <v>19</v>
+      </c>
+      <c r="T25">
+        <v>8</v>
+      </c>
+      <c r="U25">
+        <v>1.5</v>
+      </c>
+      <c r="V25">
+        <v>29</v>
+      </c>
+      <c r="W25">
+        <v>6</v>
+      </c>
+      <c r="X25">
+        <v>7</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850F317F-E9D2-144B-8FCA-CF7C32CAF134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3036E8C2-FB3F-1F40-81BC-B836AE9868A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="3500" windowWidth="28800" windowHeight="17500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
   <si>
     <t>year</t>
   </si>
@@ -538,9 +538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7057F566-E0FC-7B48-AE13-1D4B793F99D4}">
   <dimension ref="A1:AG467"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2218,7 +2218,7 @@
         <v>546</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
         <v>1</v>
@@ -2446,10 +2446,10 @@
         <v>21</v>
       </c>
       <c r="J25">
-        <v>580</v>
+        <v>491</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
         <v>1</v>
@@ -2495,12 +2495,158 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>2024</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26">
+        <v>800</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>7.5</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <v>9.5</v>
+      </c>
+      <c r="R26">
+        <v>8.5</v>
+      </c>
+      <c r="S26">
+        <v>17</v>
+      </c>
+      <c r="T26">
+        <v>7</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <v>29.5</v>
+      </c>
+      <c r="W26">
+        <v>4.5</v>
+      </c>
+      <c r="X26">
+        <v>8.5</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>2024</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27">
+        <v>5169</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <v>3.5</v>
+      </c>
+      <c r="Q27">
+        <v>8.5</v>
+      </c>
+      <c r="R27">
+        <v>11.5</v>
+      </c>
+      <c r="S27">
+        <v>18</v>
+      </c>
+      <c r="T27">
+        <v>7</v>
+      </c>
+      <c r="U27">
+        <v>2.5</v>
+      </c>
+      <c r="V27">
+        <v>31</v>
+      </c>
+      <c r="W27">
+        <v>5</v>
+      </c>
+      <c r="X27">
+        <v>5</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L28" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3036E8C2-FB3F-1F40-81BC-B836AE9868A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0EB2B9-FC9A-E344-BF6D-0638D6F57F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="3500" windowWidth="28800" windowHeight="17500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="45">
   <si>
     <t>year</t>
   </si>
@@ -538,9 +538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7057F566-E0FC-7B48-AE13-1D4B793F99D4}">
   <dimension ref="A1:AG467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="Y27" sqref="Y27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2649,12 +2649,158 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>2024</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28">
+        <v>675</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>7</v>
+      </c>
+      <c r="R28">
+        <v>10</v>
+      </c>
+      <c r="S28">
+        <v>20</v>
+      </c>
+      <c r="T28">
+        <v>6</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <v>33</v>
+      </c>
+      <c r="W28">
+        <v>5</v>
+      </c>
+      <c r="X28">
+        <v>7</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>2024</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29">
+        <v>1311</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N29">
+        <v>0.5</v>
+      </c>
+      <c r="O29">
+        <v>8</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <v>8</v>
+      </c>
+      <c r="R29">
+        <v>10</v>
+      </c>
+      <c r="S29">
+        <v>17</v>
+      </c>
+      <c r="T29">
+        <v>7</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>29</v>
+      </c>
+      <c r="W29">
+        <v>6</v>
+      </c>
+      <c r="X29">
+        <v>8.5</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L30" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0EB2B9-FC9A-E344-BF6D-0638D6F57F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA3801A-9DC3-8C41-B625-051FA109EA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="3500" windowWidth="28800" windowHeight="17500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="46">
   <si>
     <t>year</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>hayer</t>
+  </si>
+  <si>
+    <t>T_1</t>
   </si>
 </sst>
 </file>
@@ -538,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7057F566-E0FC-7B48-AE13-1D4B793F99D4}">
   <dimension ref="A1:AG467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
@@ -2149,8 +2152,8 @@
       <c r="M21" s="2">
         <v>1</v>
       </c>
-      <c r="N21">
-        <v>1</v>
+      <c r="N21" t="s">
+        <v>45</v>
       </c>
       <c r="O21">
         <v>7</v>
@@ -2803,16 +2806,235 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>2024</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30">
+        <v>1800</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>8</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>7</v>
+      </c>
+      <c r="R30">
+        <v>13</v>
+      </c>
+      <c r="S30">
+        <v>18</v>
+      </c>
+      <c r="T30">
+        <v>7</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <v>30</v>
+      </c>
+      <c r="W30">
+        <v>6</v>
+      </c>
+      <c r="X30">
+        <v>6</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="A31">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>2024</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31">
+        <v>568</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>6</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>8</v>
+      </c>
+      <c r="R31">
+        <v>11</v>
+      </c>
+      <c r="S31">
+        <v>20</v>
+      </c>
+      <c r="T31">
+        <v>8</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>27</v>
+      </c>
+      <c r="W31">
+        <v>8</v>
+      </c>
+      <c r="X31">
+        <v>6</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <v>2024</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>23</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32">
+        <v>1000</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>7</v>
+      </c>
+      <c r="P32">
+        <v>3</v>
+      </c>
+      <c r="Q32">
+        <v>8.1</v>
+      </c>
+      <c r="R32">
+        <v>12.2</v>
+      </c>
+      <c r="S32">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="T32">
+        <v>7.6</v>
+      </c>
+      <c r="U32">
+        <v>2.4</v>
+      </c>
+      <c r="V32">
+        <v>30.7</v>
+      </c>
+      <c r="W32">
+        <v>5.5</v>
+      </c>
+      <c r="X32">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="12:33" x14ac:dyDescent="0.2">
       <c r="L33" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA3801A-9DC3-8C41-B625-051FA109EA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6C22CD-BAB1-514D-B144-190A7EFCF2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="3500" windowWidth="28800" windowHeight="17500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
+    <workbookView xWindow="34460" yWindow="4640" windowWidth="28800" windowHeight="17500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="46">
   <si>
     <t>year</t>
   </si>
@@ -542,8 +542,8 @@
   <dimension ref="A1:AG467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="Z32" sqref="Z32"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1990,7 +1990,7 @@
         <v>800</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
         <v>1</v>
@@ -2834,10 +2834,10 @@
         <v>21</v>
       </c>
       <c r="J30">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2">
         <v>1</v>
@@ -2911,10 +2911,10 @@
         <v>21</v>
       </c>
       <c r="J31">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2">
         <v>1</v>
@@ -2988,10 +2988,10 @@
         <v>21</v>
       </c>
       <c r="J32">
-        <v>1000</v>
+        <v>902</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2">
         <v>1</v>
@@ -3036,63 +3036,209 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="12:33" x14ac:dyDescent="0.2">
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="12:33" x14ac:dyDescent="0.2">
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>2024</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>19</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33">
+        <v>504</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N33">
+        <v>0.5</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="P33">
+        <v>3</v>
+      </c>
+      <c r="Q33">
+        <v>7</v>
+      </c>
+      <c r="R33">
+        <v>11</v>
+      </c>
+      <c r="S33">
+        <v>21</v>
+      </c>
+      <c r="T33">
+        <v>7</v>
+      </c>
+      <c r="U33">
+        <v>2</v>
+      </c>
+      <c r="V33">
+        <v>30</v>
+      </c>
+      <c r="W33">
+        <v>6</v>
+      </c>
+      <c r="X33">
+        <v>6.5</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>2024</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34">
+        <v>1723</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>7</v>
+      </c>
+      <c r="P34">
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>7</v>
+      </c>
+      <c r="R34">
+        <v>12</v>
+      </c>
+      <c r="S34">
+        <v>18</v>
+      </c>
+      <c r="T34">
+        <v>7</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34">
+        <v>30</v>
+      </c>
+      <c r="W34">
+        <v>6</v>
+      </c>
+      <c r="X34">
+        <v>7</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="U47" s="1"/>
@@ -3101,7 +3247,7 @@
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
     </row>
-    <row r="48" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="U48" s="1"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6C22CD-BAB1-514D-B144-190A7EFCF2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04198747-AE46-714E-AFF0-6596ADE9D31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34460" yWindow="4640" windowWidth="28800" windowHeight="17500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
   <si>
     <t>year</t>
   </si>
@@ -542,8 +542,8 @@
   <dimension ref="A1:AG467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3191,8 +3191,81 @@
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>2024</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>27</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35">
+        <v>653</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>7</v>
+      </c>
+      <c r="P35">
+        <v>2.5</v>
+      </c>
+      <c r="Q35">
+        <v>6</v>
+      </c>
+      <c r="R35">
+        <v>11</v>
+      </c>
+      <c r="S35">
+        <v>20</v>
+      </c>
+      <c r="T35">
+        <v>8</v>
+      </c>
+      <c r="U35">
+        <v>3</v>
+      </c>
+      <c r="V35">
+        <v>30</v>
+      </c>
+      <c r="W35">
+        <v>5.5</v>
+      </c>
+      <c r="X35">
+        <v>6</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="L36" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04198747-AE46-714E-AFF0-6596ADE9D31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D69F2E3-BCFE-1F42-A017-EB434C27F078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AG$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AF$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="46">
   <si>
     <t>year</t>
   </si>
@@ -139,9 +139,6 @@
     <t>c_r</t>
   </si>
   <si>
-    <t>c_oth</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>T_1</t>
+  </si>
+  <si>
+    <t>dupontaignant</t>
   </si>
 </sst>
 </file>
@@ -539,11 +539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7057F566-E0FC-7B48-AE13-1D4B793F99D4}">
-  <dimension ref="A1:AG467"/>
+  <dimension ref="A1:AF467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="X35" sqref="X35"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="Z37" sqref="Z37:Z128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,10 +622,10 @@
         <v>34</v>
       </c>
       <c r="Y1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Z1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -698,11 +698,11 @@
       <c r="W2">
         <v>6.5</v>
       </c>
-      <c r="X2">
-        <v>3</v>
+      <c r="Y2">
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -775,11 +775,11 @@
       <c r="W3">
         <v>6.5</v>
       </c>
-      <c r="X3">
-        <v>3.5</v>
+      <c r="Y3">
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -852,14 +852,14 @@
       <c r="W4">
         <v>6</v>
       </c>
-      <c r="X4">
-        <v>4</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>37</v>
+      <c r="X4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -932,14 +932,14 @@
       <c r="W5">
         <v>5.5</v>
       </c>
-      <c r="X5">
-        <v>3</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>38</v>
+      <c r="X5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -1012,14 +1012,14 @@
       <c r="W6">
         <v>6</v>
       </c>
-      <c r="X6">
-        <v>2.5</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>36</v>
+      <c r="X6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -1092,14 +1092,14 @@
       <c r="W7">
         <v>6</v>
       </c>
-      <c r="X7">
-        <v>3</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>37</v>
+      <c r="X7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -1172,11 +1172,11 @@
       <c r="W8">
         <v>7</v>
       </c>
-      <c r="X8">
-        <v>7</v>
+      <c r="Y8">
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -1249,11 +1249,11 @@
       <c r="W9">
         <v>6.5</v>
       </c>
-      <c r="X9">
-        <v>3</v>
+      <c r="Y9">
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -1326,11 +1326,11 @@
       <c r="W10">
         <v>6</v>
       </c>
-      <c r="X10">
-        <v>4</v>
+      <c r="Y10">
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -1403,11 +1403,11 @@
       <c r="W11">
         <v>8</v>
       </c>
-      <c r="X11">
-        <v>6</v>
+      <c r="Y11">
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -1480,11 +1480,11 @@
       <c r="W12">
         <v>7.5</v>
       </c>
-      <c r="X12">
-        <v>3.5</v>
+      <c r="Y12">
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -1557,11 +1557,11 @@
       <c r="W13">
         <v>5</v>
       </c>
-      <c r="X13">
-        <v>7.5</v>
+      <c r="Y13">
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -1634,11 +1634,11 @@
       <c r="W14">
         <v>6</v>
       </c>
-      <c r="X14">
-        <v>6.5</v>
+      <c r="Y14">
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -1711,11 +1711,11 @@
       <c r="W15">
         <v>7</v>
       </c>
-      <c r="X15">
-        <v>6</v>
+      <c r="Y15">
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -1788,14 +1788,14 @@
       <c r="W16">
         <v>6</v>
       </c>
-      <c r="X16">
-        <v>7</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>39</v>
+      <c r="X16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
@@ -1868,14 +1868,14 @@
       <c r="W17">
         <v>6.5</v>
       </c>
-      <c r="X17">
-        <v>8</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>40</v>
+      <c r="X17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
@@ -1948,11 +1948,11 @@
       <c r="W18">
         <v>6</v>
       </c>
-      <c r="X18">
-        <v>8</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>41</v>
+      <c r="X18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
       </c>
       <c r="Z18">
         <v>1</v>
@@ -2028,11 +2028,11 @@
       <c r="W19">
         <v>5</v>
       </c>
-      <c r="X19">
-        <v>8.5</v>
+      <c r="Y19">
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
@@ -2055,7 +2055,7 @@
         <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
         <v>7</v>
@@ -2105,11 +2105,11 @@
       <c r="W20">
         <v>8</v>
       </c>
-      <c r="X20">
-        <v>6</v>
+      <c r="Y20">
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O21">
         <v>7</v>
@@ -2182,11 +2182,11 @@
       <c r="W21">
         <v>8</v>
       </c>
-      <c r="X21">
-        <v>7</v>
+      <c r="Y21">
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
@@ -2259,11 +2259,11 @@
       <c r="W22">
         <v>7</v>
       </c>
-      <c r="X22">
-        <v>7</v>
+      <c r="Y22">
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
@@ -2336,11 +2336,11 @@
       <c r="W23">
         <v>7</v>
       </c>
-      <c r="X23">
-        <v>3</v>
+      <c r="Y23">
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
@@ -2363,7 +2363,7 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H24" t="s">
         <v>2</v>
@@ -2413,8 +2413,8 @@
       <c r="W24">
         <v>6</v>
       </c>
-      <c r="X24">
-        <v>6</v>
+      <c r="Y24">
+        <v>1</v>
       </c>
       <c r="Z24">
         <v>1</v>
@@ -2490,8 +2490,8 @@
       <c r="W25">
         <v>6</v>
       </c>
-      <c r="X25">
-        <v>7</v>
+      <c r="Y25">
+        <v>1</v>
       </c>
       <c r="Z25">
         <v>1</v>
@@ -2567,8 +2567,8 @@
       <c r="W26">
         <v>4.5</v>
       </c>
-      <c r="X26">
-        <v>8.5</v>
+      <c r="Y26">
+        <v>1</v>
       </c>
       <c r="Z26">
         <v>1</v>
@@ -2644,8 +2644,8 @@
       <c r="W27">
         <v>5</v>
       </c>
-      <c r="X27">
-        <v>5</v>
+      <c r="Y27">
+        <v>1</v>
       </c>
       <c r="Z27">
         <v>1</v>
@@ -2671,7 +2671,7 @@
         <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s">
         <v>7</v>
@@ -2721,8 +2721,8 @@
       <c r="W28">
         <v>5</v>
       </c>
-      <c r="X28">
-        <v>7</v>
+      <c r="Y28">
+        <v>1</v>
       </c>
       <c r="Z28">
         <v>1</v>
@@ -2798,8 +2798,8 @@
       <c r="W29">
         <v>6</v>
       </c>
-      <c r="X29">
-        <v>8.5</v>
+      <c r="Y29">
+        <v>1</v>
       </c>
       <c r="Z29">
         <v>1</v>
@@ -2875,8 +2875,8 @@
       <c r="W30">
         <v>6</v>
       </c>
-      <c r="X30">
-        <v>6</v>
+      <c r="Y30">
+        <v>1</v>
       </c>
       <c r="Z30">
         <v>1</v>
@@ -2952,8 +2952,8 @@
       <c r="W31">
         <v>8</v>
       </c>
-      <c r="X31">
-        <v>6</v>
+      <c r="Y31">
+        <v>1</v>
       </c>
       <c r="Z31">
         <v>1</v>
@@ -3029,14 +3029,14 @@
       <c r="W32">
         <v>5.5</v>
       </c>
-      <c r="X32">
-        <v>4.4000000000000004</v>
+      <c r="Y32">
+        <v>1</v>
       </c>
       <c r="Z32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>28</v>
       </c>
@@ -3106,14 +3106,14 @@
       <c r="W33">
         <v>6</v>
       </c>
-      <c r="X33">
-        <v>6.5</v>
+      <c r="Y33">
+        <v>1</v>
       </c>
       <c r="Z33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>29</v>
       </c>
@@ -3183,14 +3183,14 @@
       <c r="W34">
         <v>6</v>
       </c>
-      <c r="X34">
-        <v>7</v>
+      <c r="Y34">
+        <v>1</v>
       </c>
       <c r="Z34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>30</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>28</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H35" t="s">
         <v>2</v>
@@ -3260,160 +3260,230 @@
       <c r="W35">
         <v>5.5</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>2024</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>29</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36">
+        <v>1723</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>8</v>
+      </c>
+      <c r="P36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
         <v>6</v>
       </c>
-      <c r="Z35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="R36">
+        <v>13</v>
+      </c>
+      <c r="S36">
+        <v>17</v>
+      </c>
+      <c r="T36">
+        <v>7</v>
+      </c>
+      <c r="V36">
+        <v>31</v>
+      </c>
+      <c r="W36">
+        <v>6</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="U47" s="1"/>
+      <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
-      <c r="AG47" s="1"/>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="U48" s="1"/>
+      <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
-      <c r="AG48" s="1"/>
-    </row>
-    <row r="49" spans="12:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="U49" s="1"/>
+      <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-    </row>
-    <row r="50" spans="12:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
-    <row r="51" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="U51" s="1"/>
-      <c r="AG51" s="1"/>
-    </row>
-    <row r="52" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="AF51" s="1"/>
+    </row>
+    <row r="52" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="U52" s="1"/>
-      <c r="AG52" s="1"/>
-    </row>
-    <row r="53" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="AF52" s="1"/>
+    </row>
+    <row r="53" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="56" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="57" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="58" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="U58" s="1"/>
+      <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
-      <c r="AG58" s="1"/>
-    </row>
-    <row r="59" spans="12:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="U59" s="1"/>
+      <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
-    </row>
-    <row r="60" spans="12:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="U60" s="1"/>
+      <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
-    </row>
-    <row r="61" spans="12:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="62" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="63" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="64" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
@@ -3481,313 +3551,313 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="81" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="82" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="83" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="U83" s="1"/>
-      <c r="AD83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AE83" s="1"/>
       <c r="AF83" s="1"/>
-      <c r="AG83" s="1"/>
-    </row>
-    <row r="84" spans="12:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="U84" s="1"/>
-      <c r="AD84" s="1"/>
+      <c r="AC84" s="1"/>
+      <c r="AE84" s="1"/>
       <c r="AF84" s="1"/>
-      <c r="AG84" s="1"/>
-    </row>
-    <row r="85" spans="12:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="U85" s="1"/>
-      <c r="AD85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AE85" s="1"/>
       <c r="AF85" s="1"/>
-      <c r="AG85" s="1"/>
-    </row>
-    <row r="86" spans="12:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="U86" s="1"/>
+      <c r="AC86" s="1"/>
       <c r="AD86" s="1"/>
-      <c r="AE86" s="1"/>
-      <c r="AG86" s="1"/>
-    </row>
-    <row r="87" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="AF86" s="1"/>
+    </row>
+    <row r="87" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="U87" s="1"/>
+      <c r="AC87" s="1"/>
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
       <c r="AF87" s="1"/>
-      <c r="AG87" s="1"/>
-    </row>
-    <row r="88" spans="12:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
-      <c r="AD88" s="1"/>
-      <c r="AF88" s="1"/>
-    </row>
-    <row r="89" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="AC88" s="1"/>
+      <c r="AE88" s="1"/>
+    </row>
+    <row r="89" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="U89" s="1"/>
-      <c r="AD89" s="1"/>
-      <c r="AG89" s="1"/>
-    </row>
-    <row r="90" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="AC89" s="1"/>
+      <c r="AF89" s="1"/>
+    </row>
+    <row r="90" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="U90" s="1"/>
-      <c r="AD90" s="1"/>
-      <c r="AG90" s="1"/>
-    </row>
-    <row r="91" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="AC90" s="1"/>
+      <c r="AF90" s="1"/>
+    </row>
+    <row r="91" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="U91" s="1"/>
-      <c r="AD91" s="1"/>
-      <c r="AG91" s="1"/>
-    </row>
-    <row r="92" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="AC91" s="1"/>
+      <c r="AF91" s="1"/>
+    </row>
+    <row r="92" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="93" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="94" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="95" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="U95" s="1"/>
-      <c r="AD95" s="1"/>
-      <c r="AG95" s="1"/>
-    </row>
-    <row r="96" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="AC95" s="1"/>
+      <c r="AF95" s="1"/>
+    </row>
+    <row r="96" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="U96" s="1"/>
-      <c r="AD96" s="1"/>
-      <c r="AG96" s="1"/>
-    </row>
-    <row r="97" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="AC96" s="1"/>
+      <c r="AF96" s="1"/>
+    </row>
+    <row r="97" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="U97" s="1"/>
-      <c r="AD97" s="1"/>
-      <c r="AG97" s="1"/>
-    </row>
-    <row r="98" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="AC97" s="1"/>
+      <c r="AF97" s="1"/>
+    </row>
+    <row r="98" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="99" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="100" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="101" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
-      <c r="AE101" s="1"/>
-    </row>
-    <row r="102" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="AD101" s="1"/>
+    </row>
+    <row r="102" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
+      <c r="AC102" s="1"/>
       <c r="AD102" s="1"/>
-      <c r="AE102" s="1"/>
-    </row>
-    <row r="103" spans="12:33" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
-      <c r="AE103" s="1"/>
-    </row>
-    <row r="104" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="AD103" s="1"/>
+    </row>
+    <row r="104" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
-      <c r="AD104" s="1"/>
-    </row>
-    <row r="105" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="AC104" s="1"/>
+    </row>
+    <row r="105" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
-      <c r="AD105" s="1"/>
-    </row>
-    <row r="106" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="AC105" s="1"/>
+    </row>
+    <row r="106" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
-      <c r="AD106" s="1"/>
-    </row>
-    <row r="107" spans="12:33" x14ac:dyDescent="0.2">
+      <c r="AC106" s="1"/>
+    </row>
+    <row r="107" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="108" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="109" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="110" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
     </row>
-    <row r="111" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="111" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" spans="12:33" x14ac:dyDescent="0.2">
+    <row r="112" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
     </row>
-    <row r="113" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="113" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
     </row>
-    <row r="114" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="114" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
     </row>
-    <row r="115" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="115" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
     </row>
-    <row r="116" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="116" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
     </row>
-    <row r="117" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="117" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
     </row>
-    <row r="118" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="118" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
     </row>
-    <row r="119" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="119" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
     </row>
-    <row r="120" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="120" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
     </row>
-    <row r="121" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="121" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
     </row>
-    <row r="122" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="122" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
     </row>
-    <row r="123" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="123" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
     </row>
-    <row r="124" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="124" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
     </row>
-    <row r="125" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="125" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
     </row>
-    <row r="126" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="126" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
-      <c r="AD126" s="1"/>
-    </row>
-    <row r="127" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="AC126" s="1"/>
+    </row>
+    <row r="127" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
-      <c r="AD127" s="1"/>
-    </row>
-    <row r="128" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="AC127" s="1"/>
+    </row>
+    <row r="128" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
-      <c r="AD128" s="1"/>
-    </row>
-    <row r="129" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="AC128" s="1"/>
+    </row>
+    <row r="129" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
-      <c r="AD129" s="1"/>
-    </row>
-    <row r="130" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="AC129" s="1"/>
+    </row>
+    <row r="130" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
     </row>
-    <row r="131" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
-      <c r="AD131" s="1"/>
-    </row>
-    <row r="132" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="AC131" s="1"/>
+    </row>
+    <row r="132" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
     </row>
-    <row r="133" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
     </row>
-    <row r="134" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
-      <c r="AD134" s="1"/>
-    </row>
-    <row r="135" spans="12:30" x14ac:dyDescent="0.2">
+      <c r="AC134" s="1"/>
+    </row>
+    <row r="135" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
     </row>
-    <row r="136" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
     </row>
-    <row r="137" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="137" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
     </row>
-    <row r="138" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
     </row>
-    <row r="139" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
     </row>
-    <row r="140" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
     </row>
-    <row r="141" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
     </row>
-    <row r="142" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
     </row>
-    <row r="143" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="143" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
     </row>
-    <row r="144" spans="12:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="12:29" x14ac:dyDescent="0.2">
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
     </row>
@@ -3855,68 +3925,68 @@
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
     </row>
-    <row r="161" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="161" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
-      <c r="AF161" s="1"/>
-    </row>
-    <row r="162" spans="12:32" x14ac:dyDescent="0.2">
+      <c r="AE161" s="1"/>
+    </row>
+    <row r="162" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
     </row>
-    <row r="163" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="163" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
     </row>
-    <row r="164" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="164" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
     </row>
-    <row r="165" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="165" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
     </row>
-    <row r="166" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="166" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
     </row>
-    <row r="167" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="167" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
     </row>
-    <row r="168" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="168" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
     </row>
-    <row r="169" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="169" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
     </row>
-    <row r="170" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="170" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
     </row>
-    <row r="171" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="171" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
     </row>
-    <row r="172" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="172" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
     </row>
-    <row r="173" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="173" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
     </row>
-    <row r="174" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="174" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
     </row>
-    <row r="175" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="175" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
     </row>
-    <row r="176" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="176" spans="12:31" x14ac:dyDescent="0.2">
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
     </row>
@@ -5085,8 +5155,8 @@
       <c r="M467" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG128" xr:uid="{7057F566-E0FC-7B48-AE13-1D4B793F99D4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG220">
+  <autoFilter ref="A1:AF128" xr:uid="{7057F566-E0FC-7B48-AE13-1D4B793F99D4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF220">
       <sortCondition ref="B1:B220"/>
     </sortState>
   </autoFilter>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D69F2E3-BCFE-1F42-A017-EB434C27F078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEE8128-E7AA-F84D-AE6E-6DE6C12458F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
+    <workbookView xWindow="3600" yWindow="10580" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
   <si>
     <t>year</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>dupontaignant</t>
+  </si>
+  <si>
+    <t>rolling</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="Z37" sqref="Z37:Z128"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3342,12 +3345,152 @@
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
+      <c r="A37">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>2024</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37">
+        <v>800</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N37">
+        <v>1.5</v>
+      </c>
+      <c r="O37">
+        <v>7.5</v>
+      </c>
+      <c r="P37">
+        <v>2.5</v>
+      </c>
+      <c r="Q37">
+        <v>8.5</v>
+      </c>
+      <c r="R37">
+        <v>12</v>
+      </c>
+      <c r="S37">
+        <v>16.5</v>
+      </c>
+      <c r="T37">
+        <v>7</v>
+      </c>
+      <c r="V37">
+        <v>30</v>
+      </c>
+      <c r="W37">
+        <v>5.5</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
+      <c r="A38">
+        <v>28</v>
+      </c>
+      <c r="B38">
+        <v>2024</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38">
+        <v>800</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>7.5</v>
+      </c>
+      <c r="P38">
+        <v>3</v>
+      </c>
+      <c r="Q38">
+        <v>6.5</v>
+      </c>
+      <c r="R38">
+        <v>11</v>
+      </c>
+      <c r="S38">
+        <v>19</v>
+      </c>
+      <c r="T38">
+        <v>7.5</v>
+      </c>
+      <c r="V38">
+        <v>32</v>
+      </c>
+      <c r="W38">
+        <v>6</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L39" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEE8128-E7AA-F84D-AE6E-6DE6C12458F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EB4E52-C154-9249-B56D-08273466AF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="10580" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
+    <workbookView xWindow="4420" yWindow="10260" windowWidth="30760" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="47">
   <si>
     <t>year</t>
   </si>
@@ -544,9 +544,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7057F566-E0FC-7B48-AE13-1D4B793F99D4}">
   <dimension ref="A1:AF467"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="Z40" sqref="Z40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -3154,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -3281,13 +3281,13 @@
         <v>3</v>
       </c>
       <c r="D36">
+        <v>28</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
         <v>29</v>
-      </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
       </c>
       <c r="G36" t="s">
         <v>5</v>
@@ -3308,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B38">
         <v>2024</v>
@@ -3493,12 +3493,152 @@
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>2024</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39">
+        <v>570</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>7</v>
+      </c>
+      <c r="P39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>7</v>
+      </c>
+      <c r="R39">
+        <v>12</v>
+      </c>
+      <c r="S39">
+        <v>19</v>
+      </c>
+      <c r="T39">
+        <v>8</v>
+      </c>
+      <c r="V39">
+        <v>29</v>
+      </c>
+      <c r="W39">
+        <v>7</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <v>2024</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40">
+        <v>1723</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>9</v>
+      </c>
+      <c r="P40">
+        <v>3</v>
+      </c>
+      <c r="Q40">
+        <v>6</v>
+      </c>
+      <c r="R40">
+        <v>12</v>
+      </c>
+      <c r="S40">
+        <v>17</v>
+      </c>
+      <c r="T40">
+        <v>7</v>
+      </c>
+      <c r="V40">
+        <v>30</v>
+      </c>
+      <c r="W40">
+        <v>6</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L41" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EB4E52-C154-9249-B56D-08273466AF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C5AAF3-E7C1-B54D-BDFD-21BCF78758F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="10260" windowWidth="30760" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="47">
   <si>
     <t>year</t>
   </si>
@@ -545,8 +545,8 @@
   <dimension ref="A1:AF467"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="Z40" sqref="Z40"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3299,10 +3299,10 @@
         <v>21</v>
       </c>
       <c r="J36">
-        <v>1723</v>
+        <v>1680</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="2">
         <v>1</v>
@@ -3447,7 +3447,7 @@
         <v>46</v>
       </c>
       <c r="J38">
-        <v>800</v>
+        <v>627</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3521,10 +3521,10 @@
         <v>21</v>
       </c>
       <c r="J39">
-        <v>570</v>
+        <v>848</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" s="2">
         <v>1</v>
@@ -3595,10 +3595,10 @@
         <v>21</v>
       </c>
       <c r="J40">
-        <v>1723</v>
+        <v>1715</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="2">
         <v>1</v>
@@ -3641,8 +3641,78 @@
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
+      <c r="A41">
+        <v>36</v>
+      </c>
+      <c r="B41">
+        <v>2024</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41">
+        <v>627</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N41">
+        <v>0.5</v>
+      </c>
+      <c r="O41">
+        <v>8</v>
+      </c>
+      <c r="P41">
+        <v>3</v>
+      </c>
+      <c r="Q41">
+        <v>6</v>
+      </c>
+      <c r="R41">
+        <v>12.5</v>
+      </c>
+      <c r="S41">
+        <v>18</v>
+      </c>
+      <c r="T41">
+        <v>8.5</v>
+      </c>
+      <c r="V41">
+        <v>31</v>
+      </c>
+      <c r="W41">
+        <v>6.5</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L42" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C5AAF3-E7C1-B54D-BDFD-21BCF78758F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3377182-DF2D-1245-8801-ABA290BB5F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="10260" windowWidth="30760" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="47">
   <si>
     <t>year</t>
   </si>
@@ -545,8 +545,8 @@
   <dimension ref="A1:AF467"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="Z41" sqref="Z41"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3715,8 +3715,78 @@
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
+      <c r="A42">
+        <v>37</v>
+      </c>
+      <c r="B42">
+        <v>2024</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42">
+        <v>606</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>7</v>
+      </c>
+      <c r="P42">
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <v>7</v>
+      </c>
+      <c r="R42">
+        <v>13</v>
+      </c>
+      <c r="S42">
+        <v>16</v>
+      </c>
+      <c r="T42">
+        <v>6.5</v>
+      </c>
+      <c r="V42">
+        <v>32</v>
+      </c>
+      <c r="W42">
+        <v>6.5</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L43" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3377182-DF2D-1245-8801-ABA290BB5F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7C2599-44AA-0448-85F9-ED2240414D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="10260" windowWidth="30760" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="47">
   <si>
     <t>year</t>
   </si>
@@ -544,9 +544,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7057F566-E0FC-7B48-AE13-1D4B793F99D4}">
   <dimension ref="A1:AF467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="T43" sqref="T43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3789,8 +3789,81 @@
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="A43">
+        <v>38</v>
+      </c>
+      <c r="B43">
+        <v>2024</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43">
+        <v>771</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>5</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+      <c r="Q43">
+        <v>6</v>
+      </c>
+      <c r="R43">
+        <v>12</v>
+      </c>
+      <c r="S43">
+        <v>19</v>
+      </c>
+      <c r="T43">
+        <v>7</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="V43">
+        <v>29</v>
+      </c>
+      <c r="W43">
+        <v>9</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L44" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7C2599-44AA-0448-85F9-ED2240414D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D4C1B5-2608-6E48-8060-37A97A89A6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="10260" windowWidth="30760" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
+    <workbookView xWindow="2840" yWindow="500" windowWidth="30760" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="47">
   <si>
     <t>year</t>
   </si>
@@ -545,8 +545,8 @@
   <dimension ref="A1:AF467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3039,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>28</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>29</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>30</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>31</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>32</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>33</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>34</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>35</v>
       </c>
@@ -3577,13 +3577,13 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G40" t="s">
         <v>5</v>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>36</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>37</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>38</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43">
         <v>9</v>
@@ -3865,35 +3865,375 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="U47" s="1"/>
-      <c r="AC47" s="1"/>
-      <c r="AD47" s="1"/>
-      <c r="AE47" s="1"/>
-      <c r="AF47" s="1"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="U48" s="1"/>
-      <c r="AC48" s="1"/>
-      <c r="AD48" s="1"/>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>39</v>
+      </c>
+      <c r="B44">
+        <v>2024</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44">
+        <v>1684</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>44</v>
+      </c>
+      <c r="O44">
+        <v>8</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="Q44">
+        <v>6</v>
+      </c>
+      <c r="R44">
+        <v>14</v>
+      </c>
+      <c r="S44">
+        <v>16</v>
+      </c>
+      <c r="T44">
+        <v>7</v>
+      </c>
+      <c r="V44">
+        <v>30</v>
+      </c>
+      <c r="W44">
+        <v>6</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>40</v>
+      </c>
+      <c r="B45">
+        <v>2024</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45">
+        <v>1623</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N45">
+        <v>0.5</v>
+      </c>
+      <c r="O45">
+        <v>8.5</v>
+      </c>
+      <c r="P45">
+        <v>2.5</v>
+      </c>
+      <c r="Q45">
+        <v>6</v>
+      </c>
+      <c r="R45">
+        <v>12</v>
+      </c>
+      <c r="S45">
+        <v>17</v>
+      </c>
+      <c r="T45">
+        <v>6</v>
+      </c>
+      <c r="V45">
+        <v>29</v>
+      </c>
+      <c r="W45">
+        <v>6</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="B46">
+        <v>2024</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>17</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46">
+        <v>575</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>8</v>
+      </c>
+      <c r="P46">
+        <v>4</v>
+      </c>
+      <c r="Q46">
+        <v>6</v>
+      </c>
+      <c r="R46">
+        <v>12</v>
+      </c>
+      <c r="S46">
+        <v>19</v>
+      </c>
+      <c r="T46">
+        <v>7</v>
+      </c>
+      <c r="V46">
+        <v>29</v>
+      </c>
+      <c r="W46">
+        <v>6</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>42</v>
+      </c>
+      <c r="B47">
+        <v>2024</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" t="s">
+        <v>46</v>
+      </c>
+      <c r="J47">
+        <v>647</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N47">
+        <v>0.5</v>
+      </c>
+      <c r="O47">
+        <v>7.5</v>
+      </c>
+      <c r="P47">
+        <v>3</v>
+      </c>
+      <c r="Q47">
+        <v>7</v>
+      </c>
+      <c r="R47">
+        <v>12</v>
+      </c>
+      <c r="S47">
+        <v>18</v>
+      </c>
+      <c r="T47">
+        <v>8</v>
+      </c>
+      <c r="V47">
+        <v>32.5</v>
+      </c>
+      <c r="W47">
+        <v>6</v>
+      </c>
+      <c r="Y47">
+        <v>1</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>43</v>
+      </c>
+      <c r="B48">
+        <v>2024</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48">
+        <v>728</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>8</v>
+      </c>
+      <c r="P48">
+        <v>2.5</v>
+      </c>
+      <c r="Q48">
+        <v>7.5</v>
+      </c>
+      <c r="R48">
+        <v>11.5</v>
+      </c>
+      <c r="S48">
+        <v>17.5</v>
+      </c>
+      <c r="T48">
+        <v>8</v>
+      </c>
+      <c r="V48">
+        <v>32</v>
+      </c>
+      <c r="W48">
+        <v>5.5</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="12:32" x14ac:dyDescent="0.2">
       <c r="L49" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D4C1B5-2608-6E48-8060-37A97A89A6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D908452B-CD82-C343-9ABE-20F5B7F7420B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="500" windowWidth="30760" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
+    <workbookView xWindow="33160" yWindow="4320" windowWidth="30760" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="47">
   <si>
     <t>year</t>
   </si>
@@ -545,8 +545,8 @@
   <dimension ref="A1:AF467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="Z52" sqref="Z52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4193,7 +4193,7 @@
         <v>728</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="2">
         <v>1</v>
@@ -4235,52 +4235,323 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="12:32" x14ac:dyDescent="0.2">
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="U49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
-    </row>
-    <row r="50" spans="12:32" x14ac:dyDescent="0.2">
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="12:32" x14ac:dyDescent="0.2">
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="U51" s="1"/>
-      <c r="AF51" s="1"/>
-    </row>
-    <row r="52" spans="12:32" x14ac:dyDescent="0.2">
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="U52" s="1"/>
-      <c r="AF52" s="1"/>
-    </row>
-    <row r="53" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49">
+        <v>2024</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>18</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49">
+        <v>653</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N49">
+        <v>0.5</v>
+      </c>
+      <c r="O49">
+        <v>7</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
+      </c>
+      <c r="Q49">
+        <v>7.5</v>
+      </c>
+      <c r="R49">
+        <v>12</v>
+      </c>
+      <c r="S49">
+        <v>17</v>
+      </c>
+      <c r="T49">
+        <v>8</v>
+      </c>
+      <c r="V49">
+        <v>31.5</v>
+      </c>
+      <c r="W49">
+        <v>5.5</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>45</v>
+      </c>
+      <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>19</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50">
+        <v>1704</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>44</v>
+      </c>
+      <c r="O50">
+        <v>8</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
+      </c>
+      <c r="Q50">
+        <v>6</v>
+      </c>
+      <c r="R50">
+        <v>13</v>
+      </c>
+      <c r="S50">
+        <v>16</v>
+      </c>
+      <c r="T50">
+        <v>7</v>
+      </c>
+      <c r="V50">
+        <v>31</v>
+      </c>
+      <c r="W50">
+        <v>6</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>46</v>
+      </c>
+      <c r="B51">
+        <v>2024</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>22</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51">
+        <v>635</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N51">
+        <v>0.5</v>
+      </c>
+      <c r="O51">
+        <v>7.5</v>
+      </c>
+      <c r="P51">
+        <v>2.5</v>
+      </c>
+      <c r="Q51">
+        <v>8</v>
+      </c>
+      <c r="R51">
+        <v>13</v>
+      </c>
+      <c r="S51">
+        <v>17.5</v>
+      </c>
+      <c r="T51">
+        <v>8</v>
+      </c>
+      <c r="V51">
+        <v>31</v>
+      </c>
+      <c r="W51">
+        <v>5.5</v>
+      </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>40</v>
+      </c>
+      <c r="B52">
+        <v>2024</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>23</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52">
+        <v>1640</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>1</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N52">
+        <v>0.5</v>
+      </c>
+      <c r="O52">
+        <v>8</v>
+      </c>
+      <c r="P52">
+        <v>3</v>
+      </c>
+      <c r="Q52">
+        <v>6.5</v>
+      </c>
+      <c r="R52">
+        <v>12.5</v>
+      </c>
+      <c r="S52">
+        <v>16</v>
+      </c>
+      <c r="T52">
+        <v>6</v>
+      </c>
+      <c r="V52">
+        <v>29.5</v>
+      </c>
+      <c r="W52">
+        <v>6</v>
+      </c>
+      <c r="Y52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="U58" s="1"/>
@@ -4289,7 +4560,7 @@
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
     </row>
-    <row r="59" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="U59" s="1"/>
@@ -4298,7 +4569,7 @@
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
     </row>
-    <row r="60" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="U60" s="1"/>
@@ -4307,19 +4578,19 @@
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
     </row>
-    <row r="61" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="62" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row r="63" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row r="64" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D908452B-CD82-C343-9ABE-20F5B7F7420B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93B50FC-E70E-3749-AA8D-ECD626626708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33160" yWindow="4320" windowWidth="30760" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
+    <workbookView xWindow="4760" yWindow="5520" windowWidth="30760" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="48">
   <si>
     <t>year</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>rolling</t>
+  </si>
+  <si>
+    <t>T_0.5</t>
   </si>
 </sst>
 </file>
@@ -544,9 +547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7057F566-E0FC-7B48-AE13-1D4B793F99D4}">
   <dimension ref="A1:AF467"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="Z52" sqref="Z52"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="Z56" sqref="Z56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4459,7 +4462,7 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B52">
         <v>2024</v>
@@ -4532,20 +4535,300 @@
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
+      <c r="A53">
+        <v>48</v>
+      </c>
+      <c r="B53">
+        <v>2024</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>25</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s">
+        <v>42</v>
+      </c>
+      <c r="H53" t="s">
+        <v>2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53">
+        <v>794</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <v>1</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>6.5</v>
+      </c>
+      <c r="P53">
+        <v>1.5</v>
+      </c>
+      <c r="Q53">
+        <v>8</v>
+      </c>
+      <c r="R53">
+        <v>13</v>
+      </c>
+      <c r="S53">
+        <v>17</v>
+      </c>
+      <c r="T53">
+        <v>6</v>
+      </c>
+      <c r="V53">
+        <v>31</v>
+      </c>
+      <c r="W53">
+        <v>5.5</v>
+      </c>
+      <c r="Y53">
+        <v>1</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <v>2024</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>23</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54">
+        <v>589</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <v>1</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>8</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+      <c r="Q54">
+        <v>7</v>
+      </c>
+      <c r="R54">
+        <v>13</v>
+      </c>
+      <c r="S54">
+        <v>18</v>
+      </c>
+      <c r="T54">
+        <v>6</v>
+      </c>
+      <c r="V54">
+        <v>30</v>
+      </c>
+      <c r="W54">
+        <v>6</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
+      <c r="A55">
+        <v>50</v>
+      </c>
+      <c r="B55">
+        <v>2024</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>19</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>2</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55">
+        <v>4683</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N55">
+        <v>0.5</v>
+      </c>
+      <c r="O55">
+        <v>7</v>
+      </c>
+      <c r="P55">
+        <v>2.5</v>
+      </c>
+      <c r="Q55">
+        <v>6.5</v>
+      </c>
+      <c r="R55">
+        <v>14</v>
+      </c>
+      <c r="S55">
+        <v>17</v>
+      </c>
+      <c r="T55">
+        <v>6.5</v>
+      </c>
+      <c r="V55">
+        <v>32</v>
+      </c>
+      <c r="W55">
+        <v>5.5</v>
+      </c>
+      <c r="Y55">
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
+      <c r="A56">
+        <v>51</v>
+      </c>
+      <c r="B56">
+        <v>2024</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>25</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>29</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56">
+        <v>635</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>47</v>
+      </c>
+      <c r="O56">
+        <v>7</v>
+      </c>
+      <c r="P56">
+        <v>2.5</v>
+      </c>
+      <c r="Q56">
+        <v>7.5</v>
+      </c>
+      <c r="R56">
+        <v>14.5</v>
+      </c>
+      <c r="S56">
+        <v>16</v>
+      </c>
+      <c r="T56">
+        <v>8</v>
+      </c>
+      <c r="V56">
+        <v>31.5</v>
+      </c>
+      <c r="W56">
+        <v>6</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L57" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93B50FC-E70E-3749-AA8D-ECD626626708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9FE917-B552-724E-AB7A-18687FDDE784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="5520" windowWidth="30760" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
+    <workbookView xWindow="32700" yWindow="7120" windowWidth="30760" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="48">
   <si>
     <t>year</t>
   </si>
@@ -548,8 +548,8 @@
   <dimension ref="A1:AF467"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="Z56" sqref="Z56"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4785,10 +4785,10 @@
         <v>46</v>
       </c>
       <c r="J56">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="2">
         <v>1</v>
@@ -4831,26 +4831,226 @@
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
+      <c r="A57">
+        <v>52</v>
+      </c>
+      <c r="B57">
+        <v>2024</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" t="s">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57">
+        <v>498</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N57">
+        <v>1.5</v>
+      </c>
+      <c r="O57">
+        <v>7</v>
+      </c>
+      <c r="P57">
+        <v>2.5</v>
+      </c>
+      <c r="Q57">
+        <v>7</v>
+      </c>
+      <c r="R57">
+        <v>12</v>
+      </c>
+      <c r="S57">
+        <v>15.5</v>
+      </c>
+      <c r="T57">
+        <v>8</v>
+      </c>
+      <c r="V57">
+        <v>32</v>
+      </c>
+      <c r="W57">
+        <v>5.5</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="U58" s="1"/>
-      <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="1"/>
-      <c r="AF58" s="1"/>
+      <c r="A58">
+        <v>53</v>
+      </c>
+      <c r="B58">
+        <v>2024</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>24</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58">
+        <v>1724</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>1</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>44</v>
+      </c>
+      <c r="O58">
+        <v>9</v>
+      </c>
+      <c r="P58">
+        <v>2</v>
+      </c>
+      <c r="Q58">
+        <v>6</v>
+      </c>
+      <c r="R58">
+        <v>13</v>
+      </c>
+      <c r="S58">
+        <v>16</v>
+      </c>
+      <c r="T58">
+        <v>7</v>
+      </c>
+      <c r="V58">
+        <v>31</v>
+      </c>
+      <c r="W58">
+        <v>6</v>
+      </c>
+      <c r="Y58">
+        <v>1</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="U59" s="1"/>
-      <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1"/>
-      <c r="AF59" s="1"/>
+      <c r="A59">
+        <v>54</v>
+      </c>
+      <c r="B59">
+        <v>2024</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>24</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59">
+        <v>605</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>6</v>
+      </c>
+      <c r="P59">
+        <v>3</v>
+      </c>
+      <c r="Q59">
+        <v>6</v>
+      </c>
+      <c r="R59">
+        <v>14</v>
+      </c>
+      <c r="S59">
+        <v>18</v>
+      </c>
+      <c r="T59">
+        <v>7</v>
+      </c>
+      <c r="V59">
+        <v>29</v>
+      </c>
+      <c r="W59">
+        <v>8</v>
+      </c>
+      <c r="Y59">
+        <v>1</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L60" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9FE917-B552-724E-AB7A-18687FDDE784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5255258C-AFCA-5841-AB7E-4295C6BBB976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32700" yWindow="7120" windowWidth="30760" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
+    <workbookView xWindow="7460" yWindow="13640" windowWidth="30760" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="47">
   <si>
     <t>year</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>rolling</t>
-  </si>
-  <si>
-    <t>T_0.5</t>
   </si>
 </sst>
 </file>
@@ -547,9 +544,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7057F566-E0FC-7B48-AE13-1D4B793F99D4}">
   <dimension ref="A1:AF467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2849,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -3157,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="M34" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -3311,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -3376,10 +3373,10 @@
         <v>21</v>
       </c>
       <c r="J37">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="2">
         <v>1</v>
@@ -3607,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="M40" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -3906,10 +3903,10 @@
         <v>1</v>
       </c>
       <c r="M44" s="2">
-        <v>1</v>
-      </c>
-      <c r="N44" t="s">
-        <v>44</v>
+        <v>0.5</v>
+      </c>
+      <c r="N44">
+        <v>0.5</v>
       </c>
       <c r="O44">
         <v>8</v>
@@ -4238,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>44</v>
       </c>
@@ -4312,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>45</v>
       </c>
@@ -4350,10 +4347,10 @@
         <v>1</v>
       </c>
       <c r="M50" s="2">
-        <v>1</v>
-      </c>
-      <c r="N50" t="s">
-        <v>44</v>
+        <v>0.5</v>
+      </c>
+      <c r="N50">
+        <v>0.5</v>
       </c>
       <c r="O50">
         <v>8</v>
@@ -4386,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>46</v>
       </c>
@@ -4460,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>47</v>
       </c>
@@ -4534,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>48</v>
       </c>
@@ -4608,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>49</v>
       </c>
@@ -4682,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50</v>
       </c>
@@ -4756,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>51</v>
       </c>
@@ -4796,8 +4793,8 @@
       <c r="M56" s="2">
         <v>0.5</v>
       </c>
-      <c r="N56" t="s">
-        <v>47</v>
+      <c r="N56">
+        <v>0.5</v>
       </c>
       <c r="O56">
         <v>7</v>
@@ -4830,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>52</v>
       </c>
@@ -4904,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>53</v>
       </c>
@@ -4942,10 +4939,10 @@
         <v>1</v>
       </c>
       <c r="M58" s="2">
-        <v>1</v>
-      </c>
-      <c r="N58" t="s">
-        <v>44</v>
+        <v>0.5</v>
+      </c>
+      <c r="N58">
+        <v>0.5</v>
       </c>
       <c r="O58">
         <v>9</v>
@@ -4978,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>54</v>
       </c>
@@ -5052,92 +5049,577 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="U60" s="1"/>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-      <c r="AF60" s="1"/>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-    </row>
-    <row r="66" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>55</v>
+      </c>
+      <c r="B60">
+        <v>2024</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>29</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" t="s">
+        <v>46</v>
+      </c>
+      <c r="J60">
+        <v>727</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>1</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N60">
+        <v>0.5</v>
+      </c>
+      <c r="O60">
+        <v>7.5</v>
+      </c>
+      <c r="P60">
+        <v>3</v>
+      </c>
+      <c r="Q60">
+        <v>7</v>
+      </c>
+      <c r="R60">
+        <v>13.5</v>
+      </c>
+      <c r="S60">
+        <v>16.5</v>
+      </c>
+      <c r="T60">
+        <v>7.5</v>
+      </c>
+      <c r="V60">
+        <v>31</v>
+      </c>
+      <c r="W60">
+        <v>6.5</v>
+      </c>
+      <c r="Y60">
+        <v>1</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>56</v>
+      </c>
+      <c r="B61">
+        <v>2024</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>29</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61">
+        <v>612</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2">
+        <v>1</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>7</v>
+      </c>
+      <c r="P61">
+        <v>4</v>
+      </c>
+      <c r="Q61">
+        <v>7</v>
+      </c>
+      <c r="R61">
+        <v>14</v>
+      </c>
+      <c r="S61">
+        <v>17</v>
+      </c>
+      <c r="T61">
+        <v>7</v>
+      </c>
+      <c r="V61">
+        <v>29</v>
+      </c>
+      <c r="W61">
+        <v>8</v>
+      </c>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>57</v>
+      </c>
+      <c r="B62">
+        <v>2024</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>29</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62">
+        <v>1978</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>8</v>
+      </c>
+      <c r="P62">
+        <v>2.5</v>
+      </c>
+      <c r="Q62">
+        <v>6</v>
+      </c>
+      <c r="R62">
+        <v>13</v>
+      </c>
+      <c r="S62">
+        <v>15.5</v>
+      </c>
+      <c r="T62">
+        <v>6</v>
+      </c>
+      <c r="V62">
+        <v>29.5</v>
+      </c>
+      <c r="W62">
+        <v>5.5</v>
+      </c>
+      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>58</v>
+      </c>
+      <c r="B63">
+        <v>2024</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>30</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63">
+        <v>775</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1</v>
+      </c>
+      <c r="M63" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>8.5</v>
+      </c>
+      <c r="P63">
+        <v>2</v>
+      </c>
+      <c r="Q63">
+        <v>8</v>
+      </c>
+      <c r="R63">
+        <v>12</v>
+      </c>
+      <c r="S63">
+        <v>16.5</v>
+      </c>
+      <c r="T63">
+        <v>6.5</v>
+      </c>
+      <c r="V63">
+        <v>32</v>
+      </c>
+      <c r="W63">
+        <v>5</v>
+      </c>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>59</v>
+      </c>
+      <c r="B64">
+        <v>2024</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>30</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>5</v>
+      </c>
+      <c r="H64" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64">
+        <v>1696</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N64">
+        <v>0.5</v>
+      </c>
+      <c r="O64">
+        <v>8.5</v>
+      </c>
+      <c r="P64">
+        <v>2.5</v>
+      </c>
+      <c r="Q64">
+        <v>5.5</v>
+      </c>
+      <c r="R64">
+        <v>14</v>
+      </c>
+      <c r="S64">
+        <v>15</v>
+      </c>
+      <c r="T64">
+        <v>7</v>
+      </c>
+      <c r="V64">
+        <v>31</v>
+      </c>
+      <c r="W64">
+        <v>5.5</v>
+      </c>
+      <c r="Y64">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>60</v>
+      </c>
+      <c r="B65">
+        <v>2024</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" t="s">
+        <v>46</v>
+      </c>
+      <c r="J65">
+        <v>721</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2">
+        <v>1</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N65">
+        <v>0.5</v>
+      </c>
+      <c r="O65">
+        <v>8</v>
+      </c>
+      <c r="P65">
+        <v>3</v>
+      </c>
+      <c r="Q65">
+        <v>6.5</v>
+      </c>
+      <c r="R65">
+        <v>13</v>
+      </c>
+      <c r="S65">
+        <v>16</v>
+      </c>
+      <c r="T65">
+        <v>8</v>
+      </c>
+      <c r="V65">
+        <v>32</v>
+      </c>
+      <c r="W65">
+        <v>6</v>
+      </c>
+      <c r="Y65">
+        <v>1</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>61</v>
+      </c>
+      <c r="B66">
+        <v>2024</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>29</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>30</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66">
+        <v>627</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2">
+        <v>1</v>
+      </c>
+      <c r="M66" s="2">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>44</v>
+      </c>
+      <c r="O66">
+        <v>6</v>
+      </c>
+      <c r="P66">
+        <v>2</v>
+      </c>
+      <c r="Q66">
+        <v>7</v>
+      </c>
+      <c r="R66">
+        <v>14</v>
+      </c>
+      <c r="S66">
+        <v>17</v>
+      </c>
+      <c r="T66">
+        <v>7</v>
+      </c>
+      <c r="V66">
+        <v>31</v>
+      </c>
+      <c r="W66">
+        <v>7</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="12:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5255258C-AFCA-5841-AB7E-4295C6BBB976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839E345C-CEB1-D340-BE4D-719612DA6A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="13640" windowWidth="30760" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="47">
   <si>
     <t>year</t>
   </si>
@@ -545,8 +545,8 @@
   <dimension ref="A1:AF467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="K66" sqref="K66"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="W72" sqref="W72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2760,7 +2760,7 @@
         <v>21</v>
       </c>
       <c r="J29">
-        <v>1311</v>
+        <v>1016</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>21</v>
       </c>
       <c r="J45">
-        <v>1623</v>
+        <v>1164</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -4486,7 +4486,7 @@
         <v>21</v>
       </c>
       <c r="J52">
-        <v>1640</v>
+        <v>1097</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -5226,7 +5226,7 @@
         <v>21</v>
       </c>
       <c r="J62">
-        <v>1978</v>
+        <v>1337</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -5568,28 +5568,448 @@
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
+      <c r="A67">
+        <v>62</v>
+      </c>
+      <c r="B67">
+        <v>2024</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" t="s">
+        <v>6</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67">
+        <v>1208</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N67">
+        <v>0.5</v>
+      </c>
+      <c r="O67">
+        <v>8.5</v>
+      </c>
+      <c r="P67">
+        <v>2</v>
+      </c>
+      <c r="Q67">
+        <v>6</v>
+      </c>
+      <c r="R67">
+        <v>13</v>
+      </c>
+      <c r="S67">
+        <v>15.5</v>
+      </c>
+      <c r="T67">
+        <v>6.5</v>
+      </c>
+      <c r="V67">
+        <v>29.5</v>
+      </c>
+      <c r="W67">
+        <v>6</v>
+      </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
+      <c r="A68">
+        <v>63</v>
+      </c>
+      <c r="B68">
+        <v>2024</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" t="s">
+        <v>46</v>
+      </c>
+      <c r="J68">
+        <v>721</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" s="2">
+        <v>1</v>
+      </c>
+      <c r="M68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N68">
+        <v>0.5</v>
+      </c>
+      <c r="O68">
+        <v>8.5</v>
+      </c>
+      <c r="P68">
+        <v>2.5</v>
+      </c>
+      <c r="Q68">
+        <v>6.5</v>
+      </c>
+      <c r="R68">
+        <v>13</v>
+      </c>
+      <c r="S68">
+        <v>17</v>
+      </c>
+      <c r="T68">
+        <v>7.5</v>
+      </c>
+      <c r="V68">
+        <v>31.5</v>
+      </c>
+      <c r="W68">
+        <v>6.5</v>
+      </c>
+      <c r="Y68">
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
+      <c r="A69">
+        <v>64</v>
+      </c>
+      <c r="B69">
+        <v>2024</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" t="s">
+        <v>46</v>
+      </c>
+      <c r="J69">
+        <v>721</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" s="2">
+        <v>1</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N69">
+        <v>0.5</v>
+      </c>
+      <c r="O69">
+        <v>8</v>
+      </c>
+      <c r="P69">
+        <v>2.5</v>
+      </c>
+      <c r="Q69">
+        <v>6</v>
+      </c>
+      <c r="R69">
+        <v>14</v>
+      </c>
+      <c r="S69">
+        <v>17</v>
+      </c>
+      <c r="T69">
+        <v>7.5</v>
+      </c>
+      <c r="V69">
+        <v>32.5</v>
+      </c>
+      <c r="W69">
+        <v>6</v>
+      </c>
+      <c r="Y69">
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
+      <c r="A70">
+        <v>65</v>
+      </c>
+      <c r="B70">
+        <v>2024</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>6</v>
+      </c>
+      <c r="I70" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70">
+        <v>610</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <v>1</v>
+      </c>
+      <c r="M70" s="2">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>6</v>
+      </c>
+      <c r="P70">
+        <v>3</v>
+      </c>
+      <c r="Q70">
+        <v>6</v>
+      </c>
+      <c r="R70">
+        <v>14</v>
+      </c>
+      <c r="S70">
+        <v>17</v>
+      </c>
+      <c r="T70">
+        <v>6</v>
+      </c>
+      <c r="V70">
+        <v>30</v>
+      </c>
+      <c r="W70">
+        <v>8</v>
+      </c>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
+      <c r="A71">
+        <v>66</v>
+      </c>
+      <c r="B71">
+        <v>2024</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71">
+        <v>1708</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2">
+        <v>1</v>
+      </c>
+      <c r="M71" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N71">
+        <v>0.5</v>
+      </c>
+      <c r="O71">
+        <v>8</v>
+      </c>
+      <c r="P71">
+        <v>3</v>
+      </c>
+      <c r="Q71">
+        <v>5.5</v>
+      </c>
+      <c r="R71">
+        <v>14</v>
+      </c>
+      <c r="S71">
+        <v>15</v>
+      </c>
+      <c r="T71">
+        <v>7</v>
+      </c>
+      <c r="V71">
+        <v>31.5</v>
+      </c>
+      <c r="W71">
+        <v>5</v>
+      </c>
+      <c r="Y71">
+        <v>1</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
+      <c r="A72">
+        <v>67</v>
+      </c>
+      <c r="B72">
+        <v>2024</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72">
+        <v>6</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" t="s">
+        <v>21</v>
+      </c>
+      <c r="J72">
+        <v>657</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <v>1</v>
+      </c>
+      <c r="M72" s="2">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>7</v>
+      </c>
+      <c r="P72">
+        <v>3</v>
+      </c>
+      <c r="Q72">
+        <v>7</v>
+      </c>
+      <c r="R72">
+        <v>14</v>
+      </c>
+      <c r="S72">
+        <v>16</v>
+      </c>
+      <c r="T72">
+        <v>7</v>
+      </c>
+      <c r="V72">
+        <v>31</v>
+      </c>
+      <c r="W72">
+        <v>7</v>
+      </c>
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L73" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839E345C-CEB1-D340-BE4D-719612DA6A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7849333F-36C0-414D-B539-BF521EEF3AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="47">
   <si>
     <t>year</t>
   </si>
@@ -546,7 +546,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="W72" sqref="W72"/>
+      <selection pane="bottomLeft" activeCell="W75" sqref="W75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6012,16 +6012,226 @@
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
+      <c r="A73">
+        <v>68</v>
+      </c>
+      <c r="B73">
+        <v>2024</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>13</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" t="s">
+        <v>46</v>
+      </c>
+      <c r="J73">
+        <v>710</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" s="2">
+        <v>1</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N73">
+        <v>0.5</v>
+      </c>
+      <c r="O73">
+        <v>7</v>
+      </c>
+      <c r="P73">
+        <v>2.5</v>
+      </c>
+      <c r="Q73">
+        <v>5.5</v>
+      </c>
+      <c r="R73">
+        <v>14.6</v>
+      </c>
+      <c r="S73">
+        <v>16.5</v>
+      </c>
+      <c r="T73">
+        <v>8</v>
+      </c>
+      <c r="V73">
+        <v>32</v>
+      </c>
+      <c r="W73">
+        <v>5.5</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
+      <c r="A74">
+        <v>69</v>
+      </c>
+      <c r="B74">
+        <v>2024</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>15</v>
+      </c>
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="F74">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" t="s">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74">
+        <v>671</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2">
+        <v>1</v>
+      </c>
+      <c r="M74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N74">
+        <v>1.5</v>
+      </c>
+      <c r="O74">
+        <v>8</v>
+      </c>
+      <c r="P74">
+        <v>2.5</v>
+      </c>
+      <c r="Q74">
+        <v>6.5</v>
+      </c>
+      <c r="R74">
+        <v>13</v>
+      </c>
+      <c r="S74">
+        <v>17</v>
+      </c>
+      <c r="T74">
+        <v>6</v>
+      </c>
+      <c r="V74">
+        <v>31</v>
+      </c>
+      <c r="W74">
+        <v>6</v>
+      </c>
+      <c r="Y74">
+        <v>1</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
+      <c r="A75">
+        <v>70</v>
+      </c>
+      <c r="B75">
+        <v>2024</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>13</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75">
+        <v>599</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2">
+        <v>1</v>
+      </c>
+      <c r="M75" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N75">
+        <v>0.5</v>
+      </c>
+      <c r="O75">
+        <v>8</v>
+      </c>
+      <c r="P75">
+        <v>2</v>
+      </c>
+      <c r="Q75">
+        <v>6.5</v>
+      </c>
+      <c r="R75">
+        <v>14.5</v>
+      </c>
+      <c r="S75">
+        <v>16</v>
+      </c>
+      <c r="T75">
+        <v>7</v>
+      </c>
+      <c r="V75">
+        <v>31</v>
+      </c>
+      <c r="W75">
+        <v>6</v>
+      </c>
+      <c r="Y75">
+        <v>1</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L76" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7849333F-36C0-414D-B539-BF521EEF3AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EAE4EA-7F66-2347-8ECA-A25FFE1D5DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="47">
   <si>
     <t>year</t>
   </si>
@@ -545,8 +545,8 @@
   <dimension ref="A1:AF467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="W75" sqref="W75"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5670,10 +5670,10 @@
         <v>46</v>
       </c>
       <c r="J68">
-        <v>721</v>
+        <v>669</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="2">
         <v>1</v>
@@ -5744,10 +5744,10 @@
         <v>46</v>
       </c>
       <c r="J69">
-        <v>721</v>
+        <v>658</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="2">
         <v>1</v>
@@ -6043,7 +6043,7 @@
         <v>710</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73" s="2">
         <v>1</v>
@@ -6064,7 +6064,7 @@
         <v>5.5</v>
       </c>
       <c r="R73">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="S73">
         <v>16.5</v>
@@ -6234,34 +6234,524 @@
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
+      <c r="A76">
+        <v>71</v>
+      </c>
+      <c r="B76">
+        <v>2024</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>13</v>
+      </c>
+      <c r="E76">
+        <v>5</v>
+      </c>
+      <c r="F76">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" t="s">
+        <v>6</v>
+      </c>
+      <c r="I76" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76">
+        <v>1285</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2">
+        <v>1</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N76">
+        <v>0.5</v>
+      </c>
+      <c r="O76">
+        <v>8</v>
+      </c>
+      <c r="P76">
+        <v>2.5</v>
+      </c>
+      <c r="Q76">
+        <v>5.5</v>
+      </c>
+      <c r="R76">
+        <v>14</v>
+      </c>
+      <c r="S76">
+        <v>15.5</v>
+      </c>
+      <c r="T76">
+        <v>6</v>
+      </c>
+      <c r="V76">
+        <v>29.5</v>
+      </c>
+      <c r="W76">
+        <v>6</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
+      <c r="A77">
+        <v>72</v>
+      </c>
+      <c r="B77">
+        <v>2024</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>15</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77">
+        <v>775</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" s="2">
+        <v>1</v>
+      </c>
+      <c r="M77" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>7.5</v>
+      </c>
+      <c r="P77">
+        <v>1.5</v>
+      </c>
+      <c r="Q77">
+        <v>7.5</v>
+      </c>
+      <c r="R77">
+        <v>13</v>
+      </c>
+      <c r="S77">
+        <v>15.5</v>
+      </c>
+      <c r="T77">
+        <v>7.5</v>
+      </c>
+      <c r="V77">
+        <v>32</v>
+      </c>
+      <c r="W77">
+        <v>5.5</v>
+      </c>
+      <c r="Y77">
+        <v>1</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
+      <c r="A78">
+        <v>73</v>
+      </c>
+      <c r="B78">
+        <v>2024</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>15</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" t="s">
+        <v>46</v>
+      </c>
+      <c r="J78">
+        <v>707</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M78" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N78">
+        <v>0.5</v>
+      </c>
+      <c r="O78">
+        <v>7</v>
+      </c>
+      <c r="P78">
+        <v>2.5</v>
+      </c>
+      <c r="Q78">
+        <v>5.5</v>
+      </c>
+      <c r="R78">
+        <v>14.5</v>
+      </c>
+      <c r="S78">
+        <v>16.5</v>
+      </c>
+      <c r="T78">
+        <v>8</v>
+      </c>
+      <c r="V78">
+        <v>32</v>
+      </c>
+      <c r="W78">
+        <v>6</v>
+      </c>
+      <c r="Y78">
+        <v>1</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
+      <c r="A79">
+        <v>74</v>
+      </c>
+      <c r="B79">
+        <v>2024</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>19</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79">
+        <v>707</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" s="2">
+        <v>1</v>
+      </c>
+      <c r="M79" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>7.5</v>
+      </c>
+      <c r="P79">
+        <v>2</v>
+      </c>
+      <c r="Q79">
+        <v>5.5</v>
+      </c>
+      <c r="R79">
+        <v>15</v>
+      </c>
+      <c r="S79">
+        <v>16.5</v>
+      </c>
+      <c r="T79">
+        <v>7.5</v>
+      </c>
+      <c r="V79">
+        <v>32</v>
+      </c>
+      <c r="W79">
+        <v>6</v>
+      </c>
+      <c r="Y79">
+        <v>1</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="12:32" x14ac:dyDescent="0.2">
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-    </row>
-    <row r="82" spans="12:32" x14ac:dyDescent="0.2">
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-    </row>
-    <row r="83" spans="12:32" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>75</v>
+      </c>
+      <c r="B80">
+        <v>2024</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>15</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+      <c r="F80">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J80">
+        <v>1708</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" s="2">
+        <v>1</v>
+      </c>
+      <c r="M80" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N80">
+        <v>0.5</v>
+      </c>
+      <c r="O80">
+        <v>8</v>
+      </c>
+      <c r="P80">
+        <v>2.5</v>
+      </c>
+      <c r="Q80">
+        <v>5</v>
+      </c>
+      <c r="R80">
+        <v>14.5</v>
+      </c>
+      <c r="S80">
+        <v>15</v>
+      </c>
+      <c r="T80">
+        <v>7.5</v>
+      </c>
+      <c r="V80">
+        <v>31.5</v>
+      </c>
+      <c r="W80">
+        <v>5.5</v>
+      </c>
+      <c r="Y80">
+        <v>1</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>76</v>
+      </c>
+      <c r="B81">
+        <v>2024</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>14</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" t="s">
+        <v>6</v>
+      </c>
+      <c r="I81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J81">
+        <v>597</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2">
+        <v>1</v>
+      </c>
+      <c r="M81" s="2">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>8</v>
+      </c>
+      <c r="P81">
+        <v>2</v>
+      </c>
+      <c r="Q81">
+        <v>6</v>
+      </c>
+      <c r="R81">
+        <v>14</v>
+      </c>
+      <c r="S81">
+        <v>16</v>
+      </c>
+      <c r="T81">
+        <v>7</v>
+      </c>
+      <c r="V81">
+        <v>31</v>
+      </c>
+      <c r="W81">
+        <v>8</v>
+      </c>
+      <c r="Y81">
+        <v>1</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>77</v>
+      </c>
+      <c r="B82">
+        <v>2024</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>14</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" t="s">
+        <v>21</v>
+      </c>
+      <c r="J82">
+        <v>597</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" s="2">
+        <v>1</v>
+      </c>
+      <c r="M82" s="2">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>7</v>
+      </c>
+      <c r="P82">
+        <v>2</v>
+      </c>
+      <c r="Q82">
+        <v>6</v>
+      </c>
+      <c r="R82">
+        <v>14</v>
+      </c>
+      <c r="S82">
+        <v>16</v>
+      </c>
+      <c r="T82">
+        <v>7</v>
+      </c>
+      <c r="V82">
+        <v>31</v>
+      </c>
+      <c r="W82">
+        <v>8</v>
+      </c>
+      <c r="Y82">
+        <v>1</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="U83" s="1"/>
@@ -6269,7 +6759,7 @@
       <c r="AE83" s="1"/>
       <c r="AF83" s="1"/>
     </row>
-    <row r="84" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="U84" s="1"/>
@@ -6277,7 +6767,7 @@
       <c r="AE84" s="1"/>
       <c r="AF84" s="1"/>
     </row>
-    <row r="85" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="U85" s="1"/>
@@ -6285,7 +6775,7 @@
       <c r="AE85" s="1"/>
       <c r="AF85" s="1"/>
     </row>
-    <row r="86" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="U86" s="1"/>
@@ -6293,7 +6783,7 @@
       <c r="AD86" s="1"/>
       <c r="AF86" s="1"/>
     </row>
-    <row r="87" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="U87" s="1"/>
@@ -6302,53 +6792,53 @@
       <c r="AE87" s="1"/>
       <c r="AF87" s="1"/>
     </row>
-    <row r="88" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="AC88" s="1"/>
       <c r="AE88" s="1"/>
     </row>
-    <row r="89" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="U89" s="1"/>
       <c r="AC89" s="1"/>
       <c r="AF89" s="1"/>
     </row>
-    <row r="90" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="U90" s="1"/>
       <c r="AC90" s="1"/>
       <c r="AF90" s="1"/>
     </row>
-    <row r="91" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="U91" s="1"/>
       <c r="AC91" s="1"/>
       <c r="AF91" s="1"/>
     </row>
-    <row r="92" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="U95" s="1"/>
       <c r="AC95" s="1"/>
       <c r="AF95" s="1"/>
     </row>
-    <row r="96" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="U96" s="1"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EAE4EA-7F66-2347-8ECA-A25FFE1D5DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA53FA21-C4BD-8A41-8D67-D529A155E3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="48">
   <si>
     <t>year</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>rolling</t>
+  </si>
+  <si>
+    <t>viavoice</t>
   </si>
 </sst>
 </file>
@@ -544,9 +547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7057F566-E0FC-7B48-AE13-1D4B793F99D4}">
   <dimension ref="A1:AF467"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="X84" sqref="X84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6484,10 +6487,10 @@
         <v>46</v>
       </c>
       <c r="J79">
-        <v>707</v>
+        <v>675</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" s="2">
         <v>1</v>
@@ -6558,10 +6561,10 @@
         <v>21</v>
       </c>
       <c r="J80">
-        <v>1708</v>
+        <v>1712</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" s="2">
         <v>1</v>
@@ -6706,10 +6709,10 @@
         <v>21</v>
       </c>
       <c r="J82">
-        <v>597</v>
+        <v>883</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" s="2">
         <v>1</v>
@@ -6752,20 +6755,152 @@
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="U83" s="1"/>
-      <c r="AC83" s="1"/>
-      <c r="AE83" s="1"/>
-      <c r="AF83" s="1"/>
+      <c r="A83">
+        <v>78</v>
+      </c>
+      <c r="B83">
+        <v>2024</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>20</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>47</v>
+      </c>
+      <c r="H83" t="s">
+        <v>2</v>
+      </c>
+      <c r="I83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83">
+        <v>1059</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2">
+        <v>1</v>
+      </c>
+      <c r="M83" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N83">
+        <v>0.5</v>
+      </c>
+      <c r="O83">
+        <v>6.5</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>7</v>
+      </c>
+      <c r="R83">
+        <v>14</v>
+      </c>
+      <c r="S83">
+        <v>17</v>
+      </c>
+      <c r="T83">
+        <v>6.5</v>
+      </c>
+      <c r="V83">
+        <v>32</v>
+      </c>
+      <c r="W83">
+        <v>6</v>
+      </c>
+      <c r="Y83">
+        <v>1</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="U84" s="1"/>
-      <c r="AC84" s="1"/>
-      <c r="AE84" s="1"/>
-      <c r="AF84" s="1"/>
+      <c r="A84">
+        <v>79</v>
+      </c>
+      <c r="B84">
+        <v>2024</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>21</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" t="s">
+        <v>7</v>
+      </c>
+      <c r="I84" t="s">
+        <v>46</v>
+      </c>
+      <c r="J84">
+        <v>669</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
+        <v>1</v>
+      </c>
+      <c r="M84" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N84">
+        <v>0.5</v>
+      </c>
+      <c r="O84">
+        <v>7.5</v>
+      </c>
+      <c r="P84">
+        <v>2</v>
+      </c>
+      <c r="Q84">
+        <v>5</v>
+      </c>
+      <c r="R84">
+        <v>14.5</v>
+      </c>
+      <c r="S84">
+        <v>16</v>
+      </c>
+      <c r="T84">
+        <v>7.5</v>
+      </c>
+      <c r="V84">
+        <v>33</v>
+      </c>
+      <c r="W84">
+        <v>6.5</v>
+      </c>
+      <c r="Y84">
+        <v>1</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L85" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA53FA21-C4BD-8A41-8D67-D529A155E3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D4C2A-08D5-8D43-9A0D-ED1D56CE2652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
+    <workbookView xWindow="1140" yWindow="9920" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="48">
   <si>
     <t>year</t>
   </si>
@@ -547,9 +547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7057F566-E0FC-7B48-AE13-1D4B793F99D4}">
   <dimension ref="A1:AF467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="X84" sqref="X84"/>
+      <selection pane="bottomLeft" activeCell="X90" sqref="X90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6344,10 +6344,10 @@
       <c r="K77">
         <v>1</v>
       </c>
-      <c r="L77" s="2">
-        <v>1</v>
-      </c>
-      <c r="M77" s="2">
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
         <v>0.5</v>
       </c>
       <c r="N77">
@@ -6903,49 +6903,448 @@
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="U85" s="1"/>
-      <c r="AC85" s="1"/>
-      <c r="AE85" s="1"/>
-      <c r="AF85" s="1"/>
+      <c r="A85">
+        <v>80</v>
+      </c>
+      <c r="B85">
+        <v>2024</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>21</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>22</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>6</v>
+      </c>
+      <c r="I85" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85">
+        <v>1043</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2">
+        <v>1</v>
+      </c>
+      <c r="M85" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>8</v>
+      </c>
+      <c r="P85">
+        <v>2</v>
+      </c>
+      <c r="Q85">
+        <v>5</v>
+      </c>
+      <c r="R85">
+        <v>14</v>
+      </c>
+      <c r="S85">
+        <v>16</v>
+      </c>
+      <c r="T85">
+        <v>6.5</v>
+      </c>
+      <c r="V85">
+        <v>29</v>
+      </c>
+      <c r="W85">
+        <v>6</v>
+      </c>
+      <c r="Y85">
+        <v>1</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="U86" s="1"/>
-      <c r="AC86" s="1"/>
-      <c r="AD86" s="1"/>
-      <c r="AF86" s="1"/>
+      <c r="A86">
+        <v>81</v>
+      </c>
+      <c r="B86">
+        <v>2024</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>21</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>22</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" t="s">
+        <v>6</v>
+      </c>
+      <c r="I86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86">
+        <v>448</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
+        <v>1</v>
+      </c>
+      <c r="M86" s="2">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>7</v>
+      </c>
+      <c r="P86">
+        <v>2</v>
+      </c>
+      <c r="Q86">
+        <v>5</v>
+      </c>
+      <c r="R86">
+        <v>13</v>
+      </c>
+      <c r="S86">
+        <v>16</v>
+      </c>
+      <c r="T86">
+        <v>8</v>
+      </c>
+      <c r="V86">
+        <v>32</v>
+      </c>
+      <c r="W86">
+        <v>7</v>
+      </c>
+      <c r="Y86">
+        <v>1</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="U87" s="1"/>
-      <c r="AC87" s="1"/>
-      <c r="AD87" s="1"/>
-      <c r="AE87" s="1"/>
-      <c r="AF87" s="1"/>
+      <c r="A87">
+        <v>82</v>
+      </c>
+      <c r="B87">
+        <v>2024</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>24</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" t="s">
+        <v>6</v>
+      </c>
+      <c r="I87" t="s">
+        <v>21</v>
+      </c>
+      <c r="J87">
+        <v>1021</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2">
+        <v>1</v>
+      </c>
+      <c r="M87" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>8</v>
+      </c>
+      <c r="P87">
+        <v>2</v>
+      </c>
+      <c r="Q87">
+        <v>6</v>
+      </c>
+      <c r="R87">
+        <v>13</v>
+      </c>
+      <c r="S87">
+        <v>15.5</v>
+      </c>
+      <c r="T87">
+        <v>7</v>
+      </c>
+      <c r="V87">
+        <v>33</v>
+      </c>
+      <c r="W87">
+        <v>5.5</v>
+      </c>
+      <c r="Y87">
+        <v>1</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="AC88" s="1"/>
-      <c r="AE88" s="1"/>
+      <c r="A88">
+        <v>83</v>
+      </c>
+      <c r="B88">
+        <v>2024</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>23</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" t="s">
+        <v>2</v>
+      </c>
+      <c r="I88" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88">
+        <v>459</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2">
+        <v>1</v>
+      </c>
+      <c r="M88" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>7</v>
+      </c>
+      <c r="P88">
+        <v>2.5</v>
+      </c>
+      <c r="Q88">
+        <v>6</v>
+      </c>
+      <c r="R88">
+        <v>13.5</v>
+      </c>
+      <c r="S88">
+        <v>15</v>
+      </c>
+      <c r="T88">
+        <v>7</v>
+      </c>
+      <c r="V88">
+        <v>34</v>
+      </c>
+      <c r="W88">
+        <v>4</v>
+      </c>
+      <c r="Y88">
+        <v>1</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="U89" s="1"/>
-      <c r="AC89" s="1"/>
-      <c r="AF89" s="1"/>
+      <c r="A89">
+        <v>84</v>
+      </c>
+      <c r="B89">
+        <v>2024</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>24</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>27</v>
+      </c>
+      <c r="G89" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89">
+        <v>1693</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2">
+        <v>1</v>
+      </c>
+      <c r="M89" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N89">
+        <v>0.5</v>
+      </c>
+      <c r="O89">
+        <v>8.5</v>
+      </c>
+      <c r="P89">
+        <v>3</v>
+      </c>
+      <c r="Q89">
+        <v>5</v>
+      </c>
+      <c r="R89">
+        <v>14</v>
+      </c>
+      <c r="S89">
+        <v>14.5</v>
+      </c>
+      <c r="T89">
+        <v>7</v>
+      </c>
+      <c r="V89">
+        <v>32</v>
+      </c>
+      <c r="W89">
+        <v>5</v>
+      </c>
+      <c r="Y89">
+        <v>1</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="U90" s="1"/>
-      <c r="AC90" s="1"/>
-      <c r="AF90" s="1"/>
+      <c r="A90">
+        <v>85</v>
+      </c>
+      <c r="B90">
+        <v>2024</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>24</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>28</v>
+      </c>
+      <c r="G90" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" t="s">
+        <v>46</v>
+      </c>
+      <c r="J90">
+        <v>922</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2">
+        <v>1</v>
+      </c>
+      <c r="M90" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N90">
+        <v>0.5</v>
+      </c>
+      <c r="O90">
+        <v>7.5</v>
+      </c>
+      <c r="P90">
+        <v>2.5</v>
+      </c>
+      <c r="Q90">
+        <v>6</v>
+      </c>
+      <c r="R90">
+        <v>14</v>
+      </c>
+      <c r="S90">
+        <v>15.5</v>
+      </c>
+      <c r="T90">
+        <v>7</v>
+      </c>
+      <c r="V90">
+        <v>34</v>
+      </c>
+      <c r="W90">
+        <v>6</v>
+      </c>
+      <c r="Y90">
+        <v>1</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L91" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D4C2A-08D5-8D43-9A0D-ED1D56CE2652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0C1444-AF25-5A45-9494-85295E2B4272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="9920" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="48">
   <si>
     <t>year</t>
   </si>
@@ -549,7 +549,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="X90" sqref="X90"/>
+      <selection pane="bottomLeft" activeCell="X93" sqref="X93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7347,19 +7347,226 @@
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="U91" s="1"/>
-      <c r="AC91" s="1"/>
-      <c r="AF91" s="1"/>
+      <c r="A91">
+        <v>86</v>
+      </c>
+      <c r="B91">
+        <v>2024</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>21</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" t="s">
+        <v>6</v>
+      </c>
+      <c r="I91" t="s">
+        <v>21</v>
+      </c>
+      <c r="J91">
+        <v>898</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
+        <v>1</v>
+      </c>
+      <c r="M91" s="2">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91">
+        <v>7</v>
+      </c>
+      <c r="P91">
+        <v>2</v>
+      </c>
+      <c r="Q91">
+        <v>5</v>
+      </c>
+      <c r="R91">
+        <v>13</v>
+      </c>
+      <c r="S91">
+        <v>15</v>
+      </c>
+      <c r="T91">
+        <v>8</v>
+      </c>
+      <c r="V91">
+        <v>32</v>
+      </c>
+      <c r="W91">
+        <v>7</v>
+      </c>
+      <c r="Y91">
+        <v>1</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
+      <c r="A92">
+        <v>87</v>
+      </c>
+      <c r="B92">
+        <v>2024</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>27</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>28</v>
+      </c>
+      <c r="G92" t="s">
+        <v>5</v>
+      </c>
+      <c r="H92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92">
+        <v>1687</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2">
+        <v>1</v>
+      </c>
+      <c r="M92" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N92">
+        <v>0.5</v>
+      </c>
+      <c r="O92">
+        <v>8.5</v>
+      </c>
+      <c r="P92">
+        <v>3</v>
+      </c>
+      <c r="Q92">
+        <v>5</v>
+      </c>
+      <c r="R92">
+        <v>14</v>
+      </c>
+      <c r="S92">
+        <v>15</v>
+      </c>
+      <c r="T92">
+        <v>7.5</v>
+      </c>
+      <c r="V92">
+        <v>32</v>
+      </c>
+      <c r="W92">
+        <v>5</v>
+      </c>
+      <c r="Y92">
+        <v>1</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
+      <c r="A93">
+        <v>88</v>
+      </c>
+      <c r="B93">
+        <v>2024</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>28</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>29</v>
+      </c>
+      <c r="G93" t="s">
+        <v>5</v>
+      </c>
+      <c r="H93" t="s">
+        <v>7</v>
+      </c>
+      <c r="I93" t="s">
+        <v>21</v>
+      </c>
+      <c r="J93">
+        <v>1687</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93" s="2">
+        <v>1</v>
+      </c>
+      <c r="M93" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N93">
+        <v>0.5</v>
+      </c>
+      <c r="O93">
+        <v>8</v>
+      </c>
+      <c r="P93">
+        <v>3</v>
+      </c>
+      <c r="Q93">
+        <v>5.5</v>
+      </c>
+      <c r="R93">
+        <v>14</v>
+      </c>
+      <c r="S93">
+        <v>14.5</v>
+      </c>
+      <c r="T93">
+        <v>7</v>
+      </c>
+      <c r="V93">
+        <v>32.5</v>
+      </c>
+      <c r="W93">
+        <v>5</v>
+      </c>
+      <c r="Y93">
+        <v>1</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="L94" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0C1444-AF25-5A45-9494-85295E2B4272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8010E0CC-DE57-0B44-A71B-DBA1806F18BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="9920" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="48">
   <si>
     <t>year</t>
   </si>
@@ -545,11 +545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7057F566-E0FC-7B48-AE13-1D4B793F99D4}">
-  <dimension ref="A1:AF467"/>
+  <dimension ref="A1:AE467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="X93" sqref="X93"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="X97" sqref="X97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>76</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>77</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>78</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>79</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>80</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>81</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>82</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>83</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>84</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>85</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>86</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>87</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>88</v>
       </c>
@@ -7523,10 +7523,10 @@
         <v>21</v>
       </c>
       <c r="J93">
-        <v>1687</v>
+        <v>1848</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" s="2">
         <v>1</v>
@@ -7568,95 +7568,366 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-    </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="U95" s="1"/>
-      <c r="AC95" s="1"/>
-      <c r="AF95" s="1"/>
-    </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="U96" s="1"/>
-      <c r="AC96" s="1"/>
-      <c r="AF96" s="1"/>
-    </row>
-    <row r="97" spans="12:32" x14ac:dyDescent="0.2">
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="U97" s="1"/>
-      <c r="AC97" s="1"/>
-      <c r="AF97" s="1"/>
-    </row>
-    <row r="98" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>89</v>
+      </c>
+      <c r="B94">
+        <v>2024</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>29</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94">
+        <v>30</v>
+      </c>
+      <c r="G94" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" t="s">
+        <v>21</v>
+      </c>
+      <c r="J94">
+        <v>1791</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2">
+        <v>1</v>
+      </c>
+      <c r="M94" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N94">
+        <v>0.5</v>
+      </c>
+      <c r="O94">
+        <v>8</v>
+      </c>
+      <c r="P94">
+        <v>3</v>
+      </c>
+      <c r="Q94">
+        <v>5.5</v>
+      </c>
+      <c r="R94">
+        <v>13.5</v>
+      </c>
+      <c r="S94">
+        <v>14.5</v>
+      </c>
+      <c r="T94">
+        <v>7</v>
+      </c>
+      <c r="V94">
+        <v>33</v>
+      </c>
+      <c r="W94">
+        <v>5.5</v>
+      </c>
+      <c r="Y94">
+        <v>1</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>90</v>
+      </c>
+      <c r="B95">
+        <v>2024</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>28</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95">
+        <v>29</v>
+      </c>
+      <c r="G95" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" t="s">
+        <v>6</v>
+      </c>
+      <c r="I95" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95">
+        <v>468</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2">
+        <v>1</v>
+      </c>
+      <c r="M95" s="2">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>7</v>
+      </c>
+      <c r="P95">
+        <v>2</v>
+      </c>
+      <c r="Q95">
+        <v>5</v>
+      </c>
+      <c r="R95">
+        <v>14</v>
+      </c>
+      <c r="S95">
+        <v>15</v>
+      </c>
+      <c r="T95">
+        <v>7</v>
+      </c>
+      <c r="V95">
+        <v>32</v>
+      </c>
+      <c r="W95">
+        <v>7</v>
+      </c>
+      <c r="Y95">
+        <v>1</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>91</v>
+      </c>
+      <c r="B96">
+        <v>2024</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>30</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+      <c r="F96">
+        <v>31</v>
+      </c>
+      <c r="G96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" t="s">
+        <v>7</v>
+      </c>
+      <c r="I96" t="s">
+        <v>21</v>
+      </c>
+      <c r="J96">
+        <v>1791</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96" s="2">
+        <v>1</v>
+      </c>
+      <c r="M96" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N96">
+        <v>0.5</v>
+      </c>
+      <c r="O96">
+        <v>8.5</v>
+      </c>
+      <c r="P96">
+        <v>3</v>
+      </c>
+      <c r="Q96">
+        <v>5.5</v>
+      </c>
+      <c r="R96">
+        <v>13.5</v>
+      </c>
+      <c r="S96">
+        <v>14.5</v>
+      </c>
+      <c r="T96">
+        <v>7</v>
+      </c>
+      <c r="V96">
+        <v>32</v>
+      </c>
+      <c r="W96">
+        <v>5.5</v>
+      </c>
+      <c r="Y96">
+        <v>1</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>92</v>
+      </c>
+      <c r="B97">
+        <v>2024</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>28</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+      <c r="F97">
+        <v>31</v>
+      </c>
+      <c r="G97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I97" t="s">
+        <v>46</v>
+      </c>
+      <c r="J97">
+        <v>922</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97" s="2">
+        <v>1</v>
+      </c>
+      <c r="M97" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N97">
+        <v>0.5</v>
+      </c>
+      <c r="O97">
+        <v>7</v>
+      </c>
+      <c r="P97">
+        <v>3</v>
+      </c>
+      <c r="Q97">
+        <v>6.5</v>
+      </c>
+      <c r="R97">
+        <v>14</v>
+      </c>
+      <c r="S97">
+        <v>15.5</v>
+      </c>
+      <c r="T97">
+        <v>7</v>
+      </c>
+      <c r="V97">
+        <v>33.5</v>
+      </c>
+      <c r="W97">
+        <v>6.5</v>
+      </c>
+      <c r="Y97">
+        <v>1</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
       <c r="AD101" s="1"/>
     </row>
-    <row r="102" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="AC102" s="1"/>
       <c r="AD102" s="1"/>
     </row>
-    <row r="103" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="AD103" s="1"/>
     </row>
-    <row r="104" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="AC104" s="1"/>
     </row>
-    <row r="105" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="AC105" s="1"/>
     </row>
-    <row r="106" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="AC106" s="1"/>
     </row>
-    <row r="107" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
     </row>
-    <row r="111" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" spans="12:32" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
     </row>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8010E0CC-DE57-0B44-A71B-DBA1806F18BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A4EF18-8CD1-004E-BEFE-5F08FF8DD0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="9920" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
+    <workbookView xWindow="1120" yWindow="9920" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="48">
   <si>
     <t>year</t>
   </si>
@@ -548,8 +548,8 @@
   <dimension ref="A1:AE467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="X97" sqref="X97"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7745,10 +7745,10 @@
         <v>21</v>
       </c>
       <c r="J96">
-        <v>1791</v>
+        <v>1808</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" s="2">
         <v>1</v>
@@ -7819,10 +7819,10 @@
         <v>46</v>
       </c>
       <c r="J97">
-        <v>922</v>
+        <v>1409</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L97" s="2">
         <v>1</v>
@@ -7865,12 +7865,152 @@
       </c>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
+      <c r="A98">
+        <v>93</v>
+      </c>
+      <c r="B98">
+        <v>2024</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98">
+        <v>28</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+      <c r="F98">
+        <v>30</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98">
+        <v>1165</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98" s="2">
+        <v>1</v>
+      </c>
+      <c r="M98" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>8</v>
+      </c>
+      <c r="P98">
+        <v>2</v>
+      </c>
+      <c r="Q98">
+        <v>5</v>
+      </c>
+      <c r="R98">
+        <v>13.5</v>
+      </c>
+      <c r="S98">
+        <v>15.5</v>
+      </c>
+      <c r="T98">
+        <v>7</v>
+      </c>
+      <c r="V98">
+        <v>30</v>
+      </c>
+      <c r="W98">
+        <v>6</v>
+      </c>
+      <c r="Y98">
+        <v>1</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
+      <c r="A99">
+        <v>94</v>
+      </c>
+      <c r="B99">
+        <v>2024</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>29</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+      <c r="F99">
+        <v>31</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" t="s">
+        <v>6</v>
+      </c>
+      <c r="I99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J99">
+        <v>1041</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2">
+        <v>1</v>
+      </c>
+      <c r="M99" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>8.5</v>
+      </c>
+      <c r="P99">
+        <v>3</v>
+      </c>
+      <c r="Q99">
+        <v>7</v>
+      </c>
+      <c r="R99">
+        <v>13</v>
+      </c>
+      <c r="S99">
+        <v>16</v>
+      </c>
+      <c r="T99">
+        <v>6.5</v>
+      </c>
+      <c r="V99">
+        <v>32.5</v>
+      </c>
+      <c r="W99">
+        <v>5</v>
+      </c>
+      <c r="Y99">
+        <v>1</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L100" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A4EF18-8CD1-004E-BEFE-5F08FF8DD0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA69C914-EA00-F244-A3AA-2D1DD632FE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="9920" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="48">
   <si>
     <t>year</t>
   </si>
@@ -548,8 +548,8 @@
   <dimension ref="A1:AE467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="L99" sqref="L99"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="O102" sqref="O102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8013,19 +8013,226 @@
       </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
+      <c r="A100">
+        <v>95</v>
+      </c>
+      <c r="B100">
+        <v>2024</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>27</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="F100">
+        <v>30</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>2</v>
+      </c>
+      <c r="I100" t="s">
+        <v>21</v>
+      </c>
+      <c r="J100">
+        <v>5638</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2">
+        <v>1</v>
+      </c>
+      <c r="M100" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N100">
+        <v>0.5</v>
+      </c>
+      <c r="O100">
+        <v>8</v>
+      </c>
+      <c r="P100">
+        <v>2</v>
+      </c>
+      <c r="Q100">
+        <v>6</v>
+      </c>
+      <c r="R100">
+        <v>14.5</v>
+      </c>
+      <c r="S100">
+        <v>16</v>
+      </c>
+      <c r="T100">
+        <v>7</v>
+      </c>
+      <c r="V100">
+        <v>33</v>
+      </c>
+      <c r="W100">
+        <v>5</v>
+      </c>
+      <c r="Y100">
+        <v>1</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="AD101" s="1"/>
+      <c r="A101">
+        <v>96</v>
+      </c>
+      <c r="B101">
+        <v>2024</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>28</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+      <c r="F101">
+        <v>30</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" t="s">
+        <v>6</v>
+      </c>
+      <c r="I101" t="s">
+        <v>21</v>
+      </c>
+      <c r="J101">
+        <v>900</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101" s="2">
+        <v>1</v>
+      </c>
+      <c r="M101" s="2">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>6</v>
+      </c>
+      <c r="P101">
+        <v>2</v>
+      </c>
+      <c r="Q101">
+        <v>5</v>
+      </c>
+      <c r="R101">
+        <v>14</v>
+      </c>
+      <c r="S101">
+        <v>15</v>
+      </c>
+      <c r="T101">
+        <v>7</v>
+      </c>
+      <c r="V101">
+        <v>33</v>
+      </c>
+      <c r="W101">
+        <v>6</v>
+      </c>
+      <c r="Y101">
+        <v>1</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="AC102" s="1"/>
-      <c r="AD102" s="1"/>
+      <c r="A102">
+        <v>97</v>
+      </c>
+      <c r="B102">
+        <v>2024</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>6</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" t="s">
+        <v>21</v>
+      </c>
+      <c r="J102">
+        <v>1768</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2">
+        <v>1</v>
+      </c>
+      <c r="M102" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N102">
+        <v>0.5</v>
+      </c>
+      <c r="O102">
+        <v>9</v>
+      </c>
+      <c r="P102">
+        <v>3</v>
+      </c>
+      <c r="Q102">
+        <v>6</v>
+      </c>
+      <c r="R102">
+        <v>13</v>
+      </c>
+      <c r="S102">
+        <v>14.5</v>
+      </c>
+      <c r="T102">
+        <v>7.5</v>
+      </c>
+      <c r="V102">
+        <v>32</v>
+      </c>
+      <c r="W102">
+        <v>5</v>
+      </c>
+      <c r="Y102">
+        <v>1</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="L103" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA69C914-EA00-F244-A3AA-2D1DD632FE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F2B17D-132D-6649-8F33-D702D5A11C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="9920" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="48">
   <si>
     <t>year</t>
   </si>
@@ -549,7 +549,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="O102" sqref="O102"/>
+      <selection pane="bottomLeft" activeCell="X104" sqref="X104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7790,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>92</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>93</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>94</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>95</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>96</v>
       </c>
@@ -8115,10 +8115,10 @@
         <v>21</v>
       </c>
       <c r="J101">
-        <v>900</v>
+        <v>929</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" s="2">
         <v>1</v>
@@ -8160,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>97</v>
       </c>
@@ -8234,47 +8234,185 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="AD103" s="1"/>
-    </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="AC104" s="1"/>
-    </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>98</v>
+      </c>
+      <c r="B103">
+        <v>2024</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>6</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103" t="s">
+        <v>5</v>
+      </c>
+      <c r="H103" t="s">
+        <v>7</v>
+      </c>
+      <c r="I103" t="s">
+        <v>21</v>
+      </c>
+      <c r="J103">
+        <v>1772</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2">
+        <v>1</v>
+      </c>
+      <c r="M103" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N103">
+        <v>0.5</v>
+      </c>
+      <c r="O103">
+        <v>9</v>
+      </c>
+      <c r="P103">
+        <v>3</v>
+      </c>
+      <c r="Q103">
+        <v>6</v>
+      </c>
+      <c r="R103">
+        <v>13</v>
+      </c>
+      <c r="S103">
+        <v>14</v>
+      </c>
+      <c r="T103">
+        <v>7.5</v>
+      </c>
+      <c r="V103">
+        <v>32</v>
+      </c>
+      <c r="W103">
+        <v>5</v>
+      </c>
+      <c r="Y103">
+        <v>1</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>99</v>
+      </c>
+      <c r="B104">
+        <v>2024</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>31</v>
+      </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="G104" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104" t="s">
+        <v>7</v>
+      </c>
+      <c r="I104" t="s">
+        <v>46</v>
+      </c>
+      <c r="J104">
+        <v>1507</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2">
+        <v>1</v>
+      </c>
+      <c r="M104" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N104">
+        <v>0.5</v>
+      </c>
+      <c r="O104">
+        <v>7.5</v>
+      </c>
+      <c r="P104">
+        <v>2.5</v>
+      </c>
+      <c r="Q104">
+        <v>5.5</v>
+      </c>
+      <c r="R104">
+        <v>14</v>
+      </c>
+      <c r="S104">
+        <v>15</v>
+      </c>
+      <c r="T104">
+        <v>7</v>
+      </c>
+      <c r="V104">
+        <v>33</v>
+      </c>
+      <c r="W104">
+        <v>6</v>
+      </c>
+      <c r="Y104">
+        <v>1</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="AC105" s="1"/>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="AC106" s="1"/>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
     </row>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F2B17D-132D-6649-8F33-D702D5A11C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAE741C-205B-6249-A56E-85A418A6E0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
+    <workbookView xWindow="32740" yWindow="2260" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="48">
   <si>
     <t>year</t>
   </si>
@@ -547,9 +547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7057F566-E0FC-7B48-AE13-1D4B793F99D4}">
   <dimension ref="A1:AE467"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="X104" sqref="X104"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="M109" sqref="M109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7790,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>92</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>93</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>94</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>95</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>96</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>97</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>98</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>99</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>31</v>
       </c>
       <c r="E104">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F104">
         <v>4</v>
@@ -8382,37 +8382,385 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="AC105" s="1"/>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="AC106" s="1"/>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>100</v>
+      </c>
+      <c r="B105">
+        <v>2024</v>
+      </c>
+      <c r="C105">
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>4</v>
+      </c>
+      <c r="E105">
+        <v>6</v>
+      </c>
+      <c r="F105">
+        <v>5</v>
+      </c>
+      <c r="G105" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105" t="s">
+        <v>7</v>
+      </c>
+      <c r="I105" t="s">
+        <v>21</v>
+      </c>
+      <c r="J105">
+        <v>1790</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2">
+        <v>1</v>
+      </c>
+      <c r="M105" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N105">
+        <v>0.5</v>
+      </c>
+      <c r="O105">
+        <v>9</v>
+      </c>
+      <c r="P105">
+        <v>3</v>
+      </c>
+      <c r="Q105">
+        <v>6</v>
+      </c>
+      <c r="R105">
+        <v>13</v>
+      </c>
+      <c r="S105">
+        <v>14</v>
+      </c>
+      <c r="T105">
+        <v>7.5</v>
+      </c>
+      <c r="V105">
+        <v>32</v>
+      </c>
+      <c r="W105">
+        <v>5</v>
+      </c>
+      <c r="Y105">
+        <v>1</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>101</v>
+      </c>
+      <c r="B106">
+        <v>2024</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>6</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
+      <c r="G106" t="s">
+        <v>42</v>
+      </c>
+      <c r="H106" t="s">
+        <v>2</v>
+      </c>
+      <c r="I106" t="s">
+        <v>21</v>
+      </c>
+      <c r="J106">
+        <v>742</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2">
+        <v>1</v>
+      </c>
+      <c r="M106" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>7.5</v>
+      </c>
+      <c r="P106">
+        <v>2.5</v>
+      </c>
+      <c r="Q106">
+        <v>5.5</v>
+      </c>
+      <c r="R106">
+        <v>14</v>
+      </c>
+      <c r="S106">
+        <v>16</v>
+      </c>
+      <c r="T106">
+        <v>6.5</v>
+      </c>
+      <c r="V106">
+        <v>33</v>
+      </c>
+      <c r="W106">
+        <v>5</v>
+      </c>
+      <c r="Y106">
+        <v>1</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>102</v>
+      </c>
+      <c r="B107">
+        <v>2024</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>6</v>
+      </c>
+      <c r="F107">
+        <v>6</v>
+      </c>
+      <c r="G107" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107" t="s">
+        <v>7</v>
+      </c>
+      <c r="I107" t="s">
+        <v>21</v>
+      </c>
+      <c r="J107">
+        <v>1769</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2">
+        <v>1</v>
+      </c>
+      <c r="M107" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N107">
+        <v>0.5</v>
+      </c>
+      <c r="O107">
+        <v>8.5</v>
+      </c>
+      <c r="P107">
+        <v>3.5</v>
+      </c>
+      <c r="Q107">
+        <v>5.5</v>
+      </c>
+      <c r="R107">
+        <v>13</v>
+      </c>
+      <c r="S107">
+        <v>14.5</v>
+      </c>
+      <c r="T107">
+        <v>7</v>
+      </c>
+      <c r="V107">
+        <v>32</v>
+      </c>
+      <c r="W107">
+        <v>5</v>
+      </c>
+      <c r="Y107">
+        <v>1</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>103</v>
+      </c>
+      <c r="B108">
+        <v>2024</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <v>31</v>
+      </c>
+      <c r="E108">
+        <v>6</v>
+      </c>
+      <c r="F108">
+        <v>5</v>
+      </c>
+      <c r="G108" t="s">
+        <v>41</v>
+      </c>
+      <c r="H108" t="s">
+        <v>2</v>
+      </c>
+      <c r="I108" t="s">
+        <v>21</v>
+      </c>
+      <c r="J108">
+        <v>608</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2">
+        <v>1</v>
+      </c>
+      <c r="M108" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N108">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O108">
+        <v>6.38</v>
+      </c>
+      <c r="P108">
+        <v>2.91</v>
+      </c>
+      <c r="Q108">
+        <v>4.42</v>
+      </c>
+      <c r="R108">
+        <v>11.55</v>
+      </c>
+      <c r="S108">
+        <v>15.27</v>
+      </c>
+      <c r="T108">
+        <v>5.96</v>
+      </c>
+      <c r="V108">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="W108">
+        <v>5.12</v>
+      </c>
+      <c r="Y108">
+        <v>1</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>104</v>
+      </c>
+      <c r="B109">
+        <v>2024</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>5</v>
+      </c>
+      <c r="F109">
+        <v>15</v>
+      </c>
+      <c r="G109" t="s">
+        <v>41</v>
+      </c>
+      <c r="H109" t="s">
+        <v>7</v>
+      </c>
+      <c r="I109" t="s">
+        <v>21</v>
+      </c>
+      <c r="J109">
+        <v>709</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2">
+        <v>1</v>
+      </c>
+      <c r="M109" s="2">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>6</v>
+      </c>
+      <c r="P109">
+        <v>2</v>
+      </c>
+      <c r="Q109">
+        <v>5</v>
+      </c>
+      <c r="R109">
+        <v>13</v>
+      </c>
+      <c r="S109">
+        <v>17</v>
+      </c>
+      <c r="T109">
+        <v>6</v>
+      </c>
+      <c r="V109">
+        <v>32</v>
+      </c>
+      <c r="W109">
+        <v>6</v>
+      </c>
+      <c r="Y109">
+        <v>1</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
     </row>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAE741C-205B-6249-A56E-85A418A6E0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE70342-03A4-B44A-91E1-D6B8931E8FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32740" yWindow="2260" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="48">
   <si>
     <t>year</t>
   </si>
@@ -547,9 +547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7057F566-E0FC-7B48-AE13-1D4B793F99D4}">
   <dimension ref="A1:AE467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="M109" sqref="M109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="X110" sqref="X110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8753,8 +8753,78 @@
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
+      <c r="A110">
+        <v>105</v>
+      </c>
+      <c r="B110">
+        <v>2024</v>
+      </c>
+      <c r="C110">
+        <v>6</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <v>6</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>2</v>
+      </c>
+      <c r="I110" t="s">
+        <v>21</v>
+      </c>
+      <c r="J110">
+        <v>783</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2">
+        <v>1</v>
+      </c>
+      <c r="M110" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N110">
+        <v>0.5</v>
+      </c>
+      <c r="O110">
+        <v>9</v>
+      </c>
+      <c r="P110">
+        <v>2.5</v>
+      </c>
+      <c r="Q110">
+        <v>6</v>
+      </c>
+      <c r="R110">
+        <v>13.5</v>
+      </c>
+      <c r="S110">
+        <v>15.5</v>
+      </c>
+      <c r="T110">
+        <v>7</v>
+      </c>
+      <c r="V110">
+        <v>32</v>
+      </c>
+      <c r="W110">
+        <v>5.5</v>
+      </c>
+      <c r="Y110">
+        <v>1</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="L111" s="2"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE70342-03A4-B44A-91E1-D6B8931E8FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FF5E14-9C68-0F47-AB5B-6F08C37361ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32740" yWindow="2260" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="48">
   <si>
     <t>year</t>
   </si>
@@ -548,8 +548,8 @@
   <dimension ref="A1:AE467"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="X110" sqref="X110"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="W117" sqref="W117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8827,76 +8827,566 @@
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
+      <c r="A111">
+        <v>106</v>
+      </c>
+      <c r="B111">
+        <v>2024</v>
+      </c>
+      <c r="C111">
+        <v>6</v>
+      </c>
+      <c r="D111">
+        <v>4</v>
+      </c>
+      <c r="E111">
+        <v>6</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" t="s">
+        <v>6</v>
+      </c>
+      <c r="I111" t="s">
+        <v>21</v>
+      </c>
+      <c r="J111">
+        <v>448</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2">
+        <v>1</v>
+      </c>
+      <c r="M111" s="2">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>7</v>
+      </c>
+      <c r="P111">
+        <v>3</v>
+      </c>
+      <c r="Q111">
+        <v>6</v>
+      </c>
+      <c r="R111">
+        <v>13</v>
+      </c>
+      <c r="S111">
+        <v>15</v>
+      </c>
+      <c r="T111">
+        <v>7</v>
+      </c>
+      <c r="V111">
+        <v>33</v>
+      </c>
+      <c r="W111">
+        <v>6</v>
+      </c>
+      <c r="Y111">
+        <v>1</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-    </row>
-    <row r="113" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-    </row>
-    <row r="114" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-    </row>
-    <row r="115" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-    </row>
-    <row r="116" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-    </row>
-    <row r="117" spans="12:29" x14ac:dyDescent="0.2">
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-    </row>
-    <row r="118" spans="12:29" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>107</v>
+      </c>
+      <c r="B112">
+        <v>2024</v>
+      </c>
+      <c r="C112">
+        <v>6</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <v>6</v>
+      </c>
+      <c r="F112">
+        <v>6</v>
+      </c>
+      <c r="G112" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" t="s">
+        <v>2</v>
+      </c>
+      <c r="I112" t="s">
+        <v>21</v>
+      </c>
+      <c r="J112">
+        <v>985</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2">
+        <v>1</v>
+      </c>
+      <c r="M112" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N112">
+        <v>1.5</v>
+      </c>
+      <c r="O112">
+        <v>7</v>
+      </c>
+      <c r="P112">
+        <v>2</v>
+      </c>
+      <c r="Q112">
+        <v>5</v>
+      </c>
+      <c r="R112">
+        <v>14</v>
+      </c>
+      <c r="S112">
+        <v>15</v>
+      </c>
+      <c r="T112">
+        <v>7</v>
+      </c>
+      <c r="V112">
+        <v>32</v>
+      </c>
+      <c r="W112">
+        <v>6</v>
+      </c>
+      <c r="Y112">
+        <v>1</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>108</v>
+      </c>
+      <c r="B113">
+        <v>2024</v>
+      </c>
+      <c r="C113">
+        <v>6</v>
+      </c>
+      <c r="D113">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>6</v>
+      </c>
+      <c r="F113">
+        <v>7</v>
+      </c>
+      <c r="G113" t="s">
+        <v>9</v>
+      </c>
+      <c r="H113" t="s">
+        <v>7</v>
+      </c>
+      <c r="I113" t="s">
+        <v>46</v>
+      </c>
+      <c r="J113">
+        <v>1490</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2">
+        <v>1</v>
+      </c>
+      <c r="M113" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N113">
+        <v>0.5</v>
+      </c>
+      <c r="O113">
+        <v>9</v>
+      </c>
+      <c r="P113">
+        <v>2.5</v>
+      </c>
+      <c r="Q113">
+        <v>5.5</v>
+      </c>
+      <c r="R113">
+        <v>13</v>
+      </c>
+      <c r="S113">
+        <v>14.5</v>
+      </c>
+      <c r="T113">
+        <v>7</v>
+      </c>
+      <c r="V113">
+        <v>33</v>
+      </c>
+      <c r="W113">
+        <v>6</v>
+      </c>
+      <c r="Y113">
+        <v>1</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>109</v>
+      </c>
+      <c r="B114">
+        <v>2024</v>
+      </c>
+      <c r="C114">
+        <v>6</v>
+      </c>
+      <c r="D114">
+        <v>6</v>
+      </c>
+      <c r="E114">
+        <v>6</v>
+      </c>
+      <c r="F114">
+        <v>7</v>
+      </c>
+      <c r="G114" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114" t="s">
+        <v>7</v>
+      </c>
+      <c r="I114" t="s">
+        <v>21</v>
+      </c>
+      <c r="J114">
+        <v>1753</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2">
+        <v>1</v>
+      </c>
+      <c r="M114" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N114">
+        <v>0.5</v>
+      </c>
+      <c r="O114">
+        <v>9.5</v>
+      </c>
+      <c r="P114">
+        <v>3</v>
+      </c>
+      <c r="Q114">
+        <v>5</v>
+      </c>
+      <c r="R114">
+        <v>13</v>
+      </c>
+      <c r="S114">
+        <v>14</v>
+      </c>
+      <c r="T114">
+        <v>7.5</v>
+      </c>
+      <c r="V114">
+        <v>32</v>
+      </c>
+      <c r="W114">
+        <v>5</v>
+      </c>
+      <c r="Y114">
+        <v>1</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>110</v>
+      </c>
+      <c r="B115">
+        <v>2024</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115">
+        <v>6</v>
+      </c>
+      <c r="F115">
+        <v>7</v>
+      </c>
+      <c r="G115" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" t="s">
+        <v>6</v>
+      </c>
+      <c r="I115" t="s">
+        <v>21</v>
+      </c>
+      <c r="J115">
+        <v>1041</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2">
+        <v>1</v>
+      </c>
+      <c r="M115" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>9.5</v>
+      </c>
+      <c r="P115">
+        <v>2.5</v>
+      </c>
+      <c r="Q115">
+        <v>5.5</v>
+      </c>
+      <c r="R115">
+        <v>14.5</v>
+      </c>
+      <c r="S115">
+        <v>16</v>
+      </c>
+      <c r="T115">
+        <v>6</v>
+      </c>
+      <c r="V115">
+        <v>32</v>
+      </c>
+      <c r="W115">
+        <v>5.5</v>
+      </c>
+      <c r="Y115">
+        <v>1</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>111</v>
+      </c>
+      <c r="B116">
+        <v>2024</v>
+      </c>
+      <c r="C116">
+        <v>6</v>
+      </c>
+      <c r="D116">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>5</v>
+      </c>
+      <c r="F116">
+        <v>7</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>6</v>
+      </c>
+      <c r="I116" t="s">
+        <v>21</v>
+      </c>
+      <c r="J116">
+        <v>1503</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2">
+        <v>1</v>
+      </c>
+      <c r="M116" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N116">
+        <v>0.5</v>
+      </c>
+      <c r="O116">
+        <v>9</v>
+      </c>
+      <c r="P116">
+        <v>2</v>
+      </c>
+      <c r="Q116">
+        <v>5</v>
+      </c>
+      <c r="R116">
+        <v>13</v>
+      </c>
+      <c r="S116">
+        <v>15</v>
+      </c>
+      <c r="T116">
+        <v>7</v>
+      </c>
+      <c r="V116">
+        <v>31</v>
+      </c>
+      <c r="W116">
+        <v>5.5</v>
+      </c>
+      <c r="Y116">
+        <v>1</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>112</v>
+      </c>
+      <c r="B117">
+        <v>2024</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>6</v>
+      </c>
+      <c r="F117">
+        <v>6</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" t="s">
+        <v>6</v>
+      </c>
+      <c r="I117" t="s">
+        <v>21</v>
+      </c>
+      <c r="J117">
+        <v>929</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2">
+        <v>1</v>
+      </c>
+      <c r="M117" s="2">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>8</v>
+      </c>
+      <c r="P117">
+        <v>2</v>
+      </c>
+      <c r="Q117">
+        <v>5</v>
+      </c>
+      <c r="R117">
+        <v>14</v>
+      </c>
+      <c r="S117">
+        <v>15</v>
+      </c>
+      <c r="T117">
+        <v>6</v>
+      </c>
+      <c r="V117">
+        <v>33</v>
+      </c>
+      <c r="W117">
+        <v>6</v>
+      </c>
+      <c r="Y117">
+        <v>1</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
     </row>
-    <row r="119" spans="12:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
     </row>
-    <row r="120" spans="12:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
     </row>
-    <row r="121" spans="12:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
     </row>
-    <row r="122" spans="12:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
     </row>
-    <row r="123" spans="12:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
     </row>
-    <row r="124" spans="12:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
     </row>
-    <row r="125" spans="12:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
     </row>
-    <row r="126" spans="12:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
       <c r="AC126" s="1"/>
     </row>
-    <row r="127" spans="12:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
       <c r="AC127" s="1"/>
     </row>
-    <row r="128" spans="12:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
       <c r="AC128" s="1"/>

--- a/PollsData.xlsx
+++ b/PollsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flavienganter/Library/CloudStorage/Dropbox/PollsFrance2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FF5E14-9C68-0F47-AB5B-6F08C37361ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE64477D-8F37-3041-A358-D1D5535944F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32740" yWindow="2260" windowWidth="33600" windowHeight="20500" xr2:uid="{675AE3D8-A0E6-044C-9B12-638CF7A22D98}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="48">
   <si>
     <t>year</t>
   </si>
@@ -549,7 +549,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="W117" sqref="W117"/>
+      <selection pane="bottomLeft" activeCell="N119" sqref="N119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9345,8 +9345,78 @@
       </c>
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
+      <c r="A118">
+        <v>113</v>
+      </c>
+      <c r="B118">
+        <v>2024</v>
+      </c>
+      <c r="C118">
+        <v>6</v>
+      </c>
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>6</v>
+      </c>
+      <c r="F118">
+        <v>7</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
+        <v>2</v>
+      </c>
+      <c r="I118" t="s">
+        <v>21</v>
+      </c>
+      <c r="J118">
+        <v>4884</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2">
+        <v>1</v>
+      </c>
+      <c r="M118" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N118">
+        <v>0.5</v>
+      </c>
+      <c r="O118">
+        <v>9.5</v>
+      </c>
+      <c r="P118">
+        <v>2.5</v>
+      </c>
+      <c r="Q118">
+        <v>5</v>
+      </c>
+      <c r="R118">
+        <v>14.5</v>
+      </c>
+      <c r="S118">
+        <v>15</v>
+      </c>
+      <c r="T118">
+        <v>7</v>
+      </c>
+      <c r="V118">
+        <v>32</v>
+      </c>
+      <c r="W118">
+        <v>5.5</v>
+      </c>
+      <c r="Y118">
+        <v>1</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L119" s="2"/>
